--- a/总体设计审查要点/1-商业项目施工图审查要点-建筑.xlsx
+++ b/总体设计审查要点/1-商业项目施工图审查要点-建筑.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习资料\大四下\毕业设计\重复条目筛选\《万达商业项目施工图审查要点》- 20180921\总体设计审查要点\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习资料\大四下\毕业设计\重复条目筛选\duplicateItem\总体设计审查要点\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">装修!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">总图及景观!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -5094,6 +5094,99 @@
     <xf numFmtId="0" fontId="25" fillId="26" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="27" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="28" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="28" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="28" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="29" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="18" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="20" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="30" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="12" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="16" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5103,152 +5196,89 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="17" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="11" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="19" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="27" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="28" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="28" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="28" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="29" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="18" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="20" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="30" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="12" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="16" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="25" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="28" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="35" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="17" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="11" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="19" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="28" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="35" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5268,34 +5298,76 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="19" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="13" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="12" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="14" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="30" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="29" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5313,82 +5385,25 @@
     <xf numFmtId="0" fontId="24" fillId="28" borderId="21" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="30" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="12" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="13" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="11" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="14" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="19" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5418,20 +5433,107 @@
     <xf numFmtId="0" fontId="24" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="30" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="13" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="13" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="12" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="41" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="36" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="37" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="38" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="29" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="18" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="29" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="18" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="20" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="41" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="45" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="40" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="13" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5448,107 +5550,23 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="29" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="18" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="29" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="18" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="20" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="41" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="45" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="40" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="36" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="37" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="38" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="13" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="30" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="13" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="12" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="41" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5562,57 +5580,54 @@
     <xf numFmtId="0" fontId="47" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5620,21 +5635,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6009,71 +6009,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="209" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="206" t="s">
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="211" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="207"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="210"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="215"/>
     </row>
     <row r="2" spans="1:11" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="216" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="213"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="218"/>
     </row>
     <row r="3" spans="1:11" s="28" customFormat="1" ht="25.05" customHeight="1">
-      <c r="A3" s="201" t="s">
+      <c r="A3" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
       <c r="G3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="214" t="s">
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="223" t="s">
         <v>188</v>
       </c>
-      <c r="K3" s="215"/>
+      <c r="K3" s="224"/>
     </row>
     <row r="4" spans="1:11" s="28" customFormat="1" ht="25.05" customHeight="1">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="200" t="s">
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
       <c r="K4" s="103" t="s">
         <v>190</v>
       </c>
@@ -6114,7 +6114,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="219" t="s">
+      <c r="A6" s="197" t="s">
         <v>193</v>
       </c>
       <c r="B6" s="108">
@@ -6135,24 +6135,24 @@
       <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="219"/>
-      <c r="B7" s="197" t="s">
+      <c r="A7" s="197"/>
+      <c r="B7" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
       <c r="E7" s="100"/>
-      <c r="F7" s="197" t="s">
+      <c r="F7" s="201" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="198"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="202"/>
     </row>
     <row r="8" spans="1:11" ht="28.8">
-      <c r="A8" s="219" t="s">
+      <c r="A8" s="197" t="s">
         <v>196</v>
       </c>
       <c r="B8" s="108">
@@ -6173,7 +6173,7 @@
       <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:11" ht="43.2">
-      <c r="A9" s="219"/>
+      <c r="A9" s="197"/>
       <c r="B9" s="108">
         <v>2.2000000000000002</v>
       </c>
@@ -6192,7 +6192,7 @@
       <c r="K9" s="52"/>
     </row>
     <row r="10" spans="1:11" ht="28.8">
-      <c r="A10" s="219"/>
+      <c r="A10" s="197"/>
       <c r="B10" s="108">
         <v>2.2999999999999998</v>
       </c>
@@ -6211,7 +6211,7 @@
       <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="219"/>
+      <c r="A11" s="197"/>
       <c r="B11" s="108">
         <v>2.4</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:11" ht="28.8">
-      <c r="A12" s="219"/>
+      <c r="A12" s="197"/>
       <c r="B12" s="108">
         <v>2.5</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="28.8">
-      <c r="A13" s="219"/>
+      <c r="A13" s="197"/>
       <c r="B13" s="108">
         <v>2.6</v>
       </c>
@@ -6268,7 +6268,7 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="28.8">
-      <c r="A14" s="219"/>
+      <c r="A14" s="197"/>
       <c r="B14" s="108">
         <v>2.7</v>
       </c>
@@ -6287,7 +6287,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="30">
-      <c r="A15" s="219"/>
+      <c r="A15" s="197"/>
       <c r="B15" s="108">
         <v>2.8</v>
       </c>
@@ -6306,7 +6306,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="219"/>
+      <c r="A16" s="197"/>
       <c r="B16" s="108">
         <v>2.9</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="219"/>
+      <c r="A17" s="197"/>
       <c r="B17" s="112">
         <v>2.1</v>
       </c>
@@ -6344,24 +6344,24 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="219"/>
-      <c r="B18" s="197" t="s">
+      <c r="A18" s="197"/>
+      <c r="B18" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="208"/>
       <c r="E18" s="100"/>
-      <c r="F18" s="197" t="s">
+      <c r="F18" s="201" t="s">
         <v>195</v>
       </c>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="198"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="202"/>
     </row>
     <row r="19" spans="1:11" ht="28.8">
-      <c r="A19" s="219" t="s">
+      <c r="A19" s="197" t="s">
         <v>207</v>
       </c>
       <c r="B19" s="108">
@@ -6382,7 +6382,7 @@
       <c r="K19" s="51"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="220"/>
+      <c r="A20" s="198"/>
       <c r="B20" s="108">
         <v>3.2</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="220"/>
+      <c r="A21" s="198"/>
       <c r="B21" s="108">
         <v>3.3</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" ht="28.8">
-      <c r="A22" s="220"/>
+      <c r="A22" s="198"/>
       <c r="B22" s="108">
         <v>3.4</v>
       </c>
@@ -6439,7 +6439,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" ht="28.8">
-      <c r="A23" s="220"/>
+      <c r="A23" s="198"/>
       <c r="B23" s="108">
         <v>3.5</v>
       </c>
@@ -6458,7 +6458,7 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="220"/>
+      <c r="A24" s="198"/>
       <c r="B24" s="108">
         <v>3.6</v>
       </c>
@@ -6477,24 +6477,24 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="220"/>
+      <c r="A25" s="198"/>
       <c r="B25" s="113"/>
       <c r="C25" s="19"/>
       <c r="D25" s="100" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="114"/>
-      <c r="F25" s="197" t="s">
+      <c r="F25" s="201" t="s">
         <v>195</v>
       </c>
-      <c r="G25" s="197"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="197"/>
-      <c r="K25" s="198"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="202"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="221" t="s">
+      <c r="A26" s="199" t="s">
         <v>214</v>
       </c>
       <c r="B26" s="108">
@@ -6515,7 +6515,7 @@
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="222"/>
+      <c r="A27" s="200"/>
       <c r="B27" s="108">
         <v>4.2</v>
       </c>
@@ -6534,7 +6534,7 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" ht="43.2">
-      <c r="A28" s="222"/>
+      <c r="A28" s="200"/>
       <c r="B28" s="108">
         <v>4.3</v>
       </c>
@@ -6553,7 +6553,7 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" ht="28.8">
-      <c r="A29" s="222"/>
+      <c r="A29" s="200"/>
       <c r="B29" s="108">
         <v>4.4000000000000004</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="222"/>
+      <c r="A30" s="200"/>
       <c r="B30" s="108">
         <v>4.5</v>
       </c>
@@ -6591,7 +6591,7 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="222"/>
+      <c r="A31" s="200"/>
       <c r="B31" s="108">
         <v>4.5999999999999996</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="222"/>
+      <c r="A32" s="200"/>
       <c r="B32" s="108">
         <v>4.7</v>
       </c>
@@ -6629,7 +6629,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" ht="28.8">
-      <c r="A33" s="222"/>
+      <c r="A33" s="200"/>
       <c r="B33" s="108">
         <v>4.8</v>
       </c>
@@ -6648,7 +6648,7 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" ht="43.2">
-      <c r="A34" s="222"/>
+      <c r="A34" s="200"/>
       <c r="B34" s="108">
         <v>4.9000000000000004</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11" ht="28.8">
-      <c r="A35" s="222"/>
+      <c r="A35" s="200"/>
       <c r="B35" s="112">
         <v>4.0999999999999996</v>
       </c>
@@ -6686,7 +6686,7 @@
       <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="222"/>
+      <c r="A36" s="200"/>
       <c r="B36" s="112">
         <v>4.1100000000000003</v>
       </c>
@@ -6705,7 +6705,7 @@
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="222"/>
+      <c r="A37" s="200"/>
       <c r="B37" s="112">
         <v>4.12</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="222"/>
+      <c r="A38" s="200"/>
       <c r="B38" s="112">
         <v>4.13</v>
       </c>
@@ -6743,7 +6743,7 @@
       <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:11" ht="28.8">
-      <c r="A39" s="222"/>
+      <c r="A39" s="200"/>
       <c r="B39" s="112">
         <v>4.1399999999999997</v>
       </c>
@@ -6762,7 +6762,7 @@
       <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11" ht="28.8">
-      <c r="A40" s="222"/>
+      <c r="A40" s="200"/>
       <c r="B40" s="112">
         <v>4.1500000000000004</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:11" ht="28.8">
-      <c r="A41" s="222"/>
+      <c r="A41" s="200"/>
       <c r="B41" s="112">
         <v>4.16</v>
       </c>
@@ -6800,7 +6800,7 @@
       <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11" ht="43.2">
-      <c r="A42" s="222"/>
+      <c r="A42" s="200"/>
       <c r="B42" s="112">
         <v>4.17</v>
       </c>
@@ -6819,7 +6819,7 @@
       <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11" ht="43.2">
-      <c r="A43" s="222"/>
+      <c r="A43" s="200"/>
       <c r="B43" s="112">
         <v>4.1800000000000104</v>
       </c>
@@ -6838,7 +6838,7 @@
       <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11" ht="28.8">
-      <c r="A44" s="222"/>
+      <c r="A44" s="200"/>
       <c r="B44" s="112">
         <v>4.1900000000000102</v>
       </c>
@@ -6857,7 +6857,7 @@
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" ht="28.8">
-      <c r="A45" s="222"/>
+      <c r="A45" s="200"/>
       <c r="B45" s="112">
         <v>4.2000000000000099</v>
       </c>
@@ -6876,7 +6876,7 @@
       <c r="K45" s="14"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="222"/>
+      <c r="A46" s="200"/>
       <c r="B46" s="112">
         <v>4.2100000000000097</v>
       </c>
@@ -6895,98 +6895,114 @@
       <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="222"/>
-      <c r="B47" s="197" t="s">
+      <c r="A47" s="200"/>
+      <c r="B47" s="201" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="203"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="197" t="s">
+      <c r="C47" s="208"/>
+      <c r="D47" s="208"/>
+      <c r="E47" s="201" t="s">
         <v>195</v>
       </c>
-      <c r="F47" s="197"/>
-      <c r="G47" s="197"/>
-      <c r="H47" s="197"/>
-      <c r="I47" s="197"/>
-      <c r="J47" s="197"/>
-      <c r="K47" s="198"/>
+      <c r="F47" s="201"/>
+      <c r="G47" s="201"/>
+      <c r="H47" s="201"/>
+      <c r="I47" s="201"/>
+      <c r="J47" s="201"/>
+      <c r="K47" s="202"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="194" t="s">
+      <c r="A48" s="225" t="s">
         <v>237</v>
       </c>
-      <c r="B48" s="195"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="196"/>
-      <c r="E48" s="197" t="s">
+      <c r="B48" s="226"/>
+      <c r="C48" s="226"/>
+      <c r="D48" s="227"/>
+      <c r="E48" s="201" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="197"/>
-      <c r="G48" s="197"/>
-      <c r="H48" s="197"/>
-      <c r="I48" s="197"/>
-      <c r="J48" s="197"/>
-      <c r="K48" s="198"/>
+      <c r="F48" s="201"/>
+      <c r="G48" s="201"/>
+      <c r="H48" s="201"/>
+      <c r="I48" s="201"/>
+      <c r="J48" s="201"/>
+      <c r="K48" s="202"/>
     </row>
     <row r="49" spans="1:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="225" t="s">
+      <c r="A49" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="226"/>
-      <c r="C49" s="223" t="s">
+      <c r="B49" s="206"/>
+      <c r="C49" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="223"/>
-      <c r="E49" s="223"/>
-      <c r="F49" s="223"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="203"/>
       <c r="G49" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="H49" s="223" t="s">
+      <c r="H49" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="223"/>
-      <c r="J49" s="223"/>
-      <c r="K49" s="224"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="203"/>
+      <c r="K49" s="204"/>
     </row>
     <row r="50" spans="1:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="225" t="s">
+      <c r="A50" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="226"/>
-      <c r="C50" s="226"/>
-      <c r="D50" s="226"/>
-      <c r="E50" s="226" t="s">
+      <c r="B50" s="206"/>
+      <c r="C50" s="206"/>
+      <c r="D50" s="206"/>
+      <c r="E50" s="206" t="s">
         <v>238</v>
       </c>
-      <c r="F50" s="226"/>
-      <c r="G50" s="226" t="s">
+      <c r="F50" s="206"/>
+      <c r="G50" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="H50" s="226"/>
-      <c r="I50" s="226"/>
-      <c r="J50" s="226" t="s">
+      <c r="H50" s="206"/>
+      <c r="I50" s="206"/>
+      <c r="J50" s="206" t="s">
         <v>239</v>
       </c>
-      <c r="K50" s="227"/>
+      <c r="K50" s="207"/>
     </row>
     <row r="51" spans="1:11" s="28" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A51" s="216" t="s">
+      <c r="A51" s="194" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="217"/>
-      <c r="C51" s="217"/>
-      <c r="D51" s="217"/>
-      <c r="E51" s="217"/>
-      <c r="F51" s="217"/>
-      <c r="G51" s="217"/>
-      <c r="H51" s="217"/>
-      <c r="I51" s="217"/>
-      <c r="J51" s="217"/>
-      <c r="K51" s="218"/>
+      <c r="B51" s="195"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="195"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="195"/>
+      <c r="H51" s="195"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="195"/>
+      <c r="K51" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:K48"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="E47:K47"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="A51:K51"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A18"/>
@@ -7003,22 +7019,6 @@
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:K48"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="E47:K47"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.90486111111111112" right="0.51180555555555551" top="0.74791666666666667" bottom="0.55069444444444449" header="0" footer="0"/>
@@ -7049,67 +7049,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="228" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="244" t="s">
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="244"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="245"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="242"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="216" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="213"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="218"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="236" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="237"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="232"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="236" t="s">
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="236"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="231"/>
       <c r="K4" s="116" t="s">
         <v>243</v>
       </c>
@@ -7150,7 +7150,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="240" t="s">
         <v>247</v>
       </c>
       <c r="B6" s="7">
@@ -7171,24 +7171,24 @@
       <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="231"/>
-      <c r="B7" s="197" t="s">
+      <c r="A7" s="240"/>
+      <c r="B7" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
       <c r="E7" s="100"/>
-      <c r="F7" s="197" t="s">
+      <c r="F7" s="201" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="198"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="202"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="240" t="s">
         <v>250</v>
       </c>
       <c r="B8" s="7">
@@ -7207,7 +7207,7 @@
       <c r="K8" s="122"/>
     </row>
     <row r="9" spans="1:11" ht="28.8">
-      <c r="A9" s="232"/>
+      <c r="A9" s="245"/>
       <c r="B9" s="124" t="s">
         <v>252</v>
       </c>
@@ -7226,7 +7226,7 @@
       <c r="K9" s="122"/>
     </row>
     <row r="10" spans="1:11" ht="57.6">
-      <c r="A10" s="232"/>
+      <c r="A10" s="245"/>
       <c r="B10" s="124" t="s">
         <v>254</v>
       </c>
@@ -7245,7 +7245,7 @@
       <c r="K10" s="122"/>
     </row>
     <row r="11" spans="1:11" ht="28.8">
-      <c r="A11" s="232"/>
+      <c r="A11" s="245"/>
       <c r="B11" s="124" t="s">
         <v>26</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="K11" s="122"/>
     </row>
     <row r="12" spans="1:11" ht="28.8">
-      <c r="A12" s="232"/>
+      <c r="A12" s="245"/>
       <c r="B12" s="124" t="s">
         <v>257</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="K12" s="122"/>
     </row>
     <row r="13" spans="1:11" ht="43.2">
-      <c r="A13" s="232"/>
+      <c r="A13" s="245"/>
       <c r="B13" s="124" t="s">
         <v>44</v>
       </c>
@@ -7302,7 +7302,7 @@
       <c r="K13" s="122"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="232"/>
+      <c r="A14" s="245"/>
       <c r="B14" s="124" t="s">
         <v>45</v>
       </c>
@@ -7321,7 +7321,7 @@
       <c r="K14" s="122"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="232"/>
+      <c r="A15" s="245"/>
       <c r="B15" s="124" t="s">
         <v>261</v>
       </c>
@@ -7340,7 +7340,7 @@
       <c r="K15" s="122"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="232"/>
+      <c r="A16" s="245"/>
       <c r="B16" s="124" t="s">
         <v>49</v>
       </c>
@@ -7359,7 +7359,7 @@
       <c r="K16" s="122"/>
     </row>
     <row r="17" spans="1:11" ht="30">
-      <c r="A17" s="232"/>
+      <c r="A17" s="245"/>
       <c r="B17" s="124" t="s">
         <v>264</v>
       </c>
@@ -7378,7 +7378,7 @@
       <c r="K17" s="122"/>
     </row>
     <row r="18" spans="1:11" ht="28.8">
-      <c r="A18" s="232"/>
+      <c r="A18" s="245"/>
       <c r="B18" s="124" t="s">
         <v>50</v>
       </c>
@@ -7397,7 +7397,7 @@
       <c r="K18" s="122"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="232"/>
+      <c r="A19" s="245"/>
       <c r="B19" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -7414,7 +7414,7 @@
       <c r="K19" s="122"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="232"/>
+      <c r="A20" s="245"/>
       <c r="B20" s="7" t="s">
         <v>268</v>
       </c>
@@ -7433,7 +7433,7 @@
       <c r="K20" s="122"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="232"/>
+      <c r="A21" s="245"/>
       <c r="B21" s="7" t="s">
         <v>270</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="K21" s="122"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="232"/>
+      <c r="A22" s="245"/>
       <c r="B22" s="7" t="s">
         <v>271</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="K22" s="122"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="232"/>
+      <c r="A23" s="245"/>
       <c r="B23" s="7" t="s">
         <v>273</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="K23" s="122"/>
     </row>
     <row r="24" spans="1:11" ht="43.2">
-      <c r="A24" s="232"/>
+      <c r="A24" s="245"/>
       <c r="B24" s="7" t="s">
         <v>274</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="K24" s="122"/>
     </row>
     <row r="25" spans="1:11" ht="43.2">
-      <c r="A25" s="232"/>
+      <c r="A25" s="245"/>
       <c r="B25" s="7" t="s">
         <v>276</v>
       </c>
@@ -7528,7 +7528,7 @@
       <c r="K25" s="122"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="232"/>
+      <c r="A26" s="245"/>
       <c r="B26" s="7" t="s">
         <v>277</v>
       </c>
@@ -7547,7 +7547,7 @@
       <c r="K26" s="122"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="232"/>
+      <c r="A27" s="245"/>
       <c r="B27" s="7" t="s">
         <v>279</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="K27" s="122"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="232"/>
+      <c r="A28" s="245"/>
       <c r="B28" s="7" t="s">
         <v>281</v>
       </c>
@@ -7585,24 +7585,24 @@
       <c r="K28" s="122"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="232"/>
-      <c r="B29" s="197" t="s">
+      <c r="A29" s="245"/>
+      <c r="B29" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="228"/>
-      <c r="D29" s="228"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
       <c r="E29" s="100"/>
-      <c r="F29" s="197" t="s">
+      <c r="F29" s="201" t="s">
         <v>249</v>
       </c>
-      <c r="G29" s="197"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="198"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="202"/>
     </row>
     <row r="30" spans="1:11" ht="28.8">
-      <c r="A30" s="238" t="s">
+      <c r="A30" s="233" t="s">
         <v>283</v>
       </c>
       <c r="B30" s="7">
@@ -7623,7 +7623,7 @@
       <c r="K30" s="122"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="239"/>
+      <c r="A31" s="234"/>
       <c r="B31" s="7">
         <v>3.2</v>
       </c>
@@ -7642,7 +7642,7 @@
       <c r="K31" s="122"/>
     </row>
     <row r="32" spans="1:11" ht="28.8">
-      <c r="A32" s="239"/>
+      <c r="A32" s="234"/>
       <c r="B32" s="7">
         <v>3.3</v>
       </c>
@@ -7661,7 +7661,7 @@
       <c r="K32" s="122"/>
     </row>
     <row r="33" spans="1:11" ht="28.8">
-      <c r="A33" s="239"/>
+      <c r="A33" s="234"/>
       <c r="B33" s="7">
         <v>3.4</v>
       </c>
@@ -7680,7 +7680,7 @@
       <c r="K33" s="122"/>
     </row>
     <row r="34" spans="1:11" ht="28.8">
-      <c r="A34" s="239"/>
+      <c r="A34" s="234"/>
       <c r="B34" s="7">
         <v>3.5</v>
       </c>
@@ -7699,7 +7699,7 @@
       <c r="K34" s="122"/>
     </row>
     <row r="35" spans="1:11" ht="43.2">
-      <c r="A35" s="239"/>
+      <c r="A35" s="234"/>
       <c r="B35" s="7">
         <v>3.6</v>
       </c>
@@ -7718,7 +7718,7 @@
       <c r="K35" s="122"/>
     </row>
     <row r="36" spans="1:11" ht="43.2">
-      <c r="A36" s="239"/>
+      <c r="A36" s="234"/>
       <c r="B36" s="7">
         <v>3.7</v>
       </c>
@@ -7737,7 +7737,7 @@
       <c r="K36" s="122"/>
     </row>
     <row r="37" spans="1:11" ht="28.8">
-      <c r="A37" s="239"/>
+      <c r="A37" s="234"/>
       <c r="B37" s="7">
         <v>3.8</v>
       </c>
@@ -7756,7 +7756,7 @@
       <c r="K37" s="122"/>
     </row>
     <row r="38" spans="1:11" ht="28.8">
-      <c r="A38" s="239"/>
+      <c r="A38" s="234"/>
       <c r="B38" s="7">
         <v>3.9</v>
       </c>
@@ -7775,7 +7775,7 @@
       <c r="K38" s="122"/>
     </row>
     <row r="39" spans="1:11" ht="57.6">
-      <c r="A39" s="239"/>
+      <c r="A39" s="234"/>
       <c r="B39" s="125">
         <v>3.1</v>
       </c>
@@ -7794,7 +7794,7 @@
       <c r="K39" s="122"/>
     </row>
     <row r="40" spans="1:11" ht="43.2">
-      <c r="A40" s="239"/>
+      <c r="A40" s="234"/>
       <c r="B40" s="125">
         <v>3.11</v>
       </c>
@@ -7813,7 +7813,7 @@
       <c r="K40" s="122"/>
     </row>
     <row r="41" spans="1:11" ht="28.8">
-      <c r="A41" s="239"/>
+      <c r="A41" s="234"/>
       <c r="B41" s="125">
         <v>3.12</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="K41" s="122"/>
     </row>
     <row r="42" spans="1:11" ht="28.8">
-      <c r="A42" s="239"/>
+      <c r="A42" s="234"/>
       <c r="B42" s="125">
         <v>3.13</v>
       </c>
@@ -7851,7 +7851,7 @@
       <c r="K42" s="122"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="239"/>
+      <c r="A43" s="234"/>
       <c r="B43" s="125">
         <v>3.14</v>
       </c>
@@ -7870,7 +7870,7 @@
       <c r="K43" s="122"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="239"/>
+      <c r="A44" s="234"/>
       <c r="B44" s="125">
         <v>3.15</v>
       </c>
@@ -7889,7 +7889,7 @@
       <c r="K44" s="122"/>
     </row>
     <row r="45" spans="1:11" ht="28.8">
-      <c r="A45" s="239"/>
+      <c r="A45" s="234"/>
       <c r="B45" s="125">
         <v>3.16</v>
       </c>
@@ -7908,7 +7908,7 @@
       <c r="K45" s="122"/>
     </row>
     <row r="46" spans="1:11" ht="28.8">
-      <c r="A46" s="239"/>
+      <c r="A46" s="234"/>
       <c r="B46" s="125">
         <v>3.17</v>
       </c>
@@ -7927,7 +7927,7 @@
       <c r="K46" s="122"/>
     </row>
     <row r="47" spans="1:11" ht="28.8">
-      <c r="A47" s="239"/>
+      <c r="A47" s="234"/>
       <c r="B47" s="125">
         <v>3.18</v>
       </c>
@@ -7946,112 +7946,98 @@
       <c r="K47" s="122"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="240"/>
-      <c r="B48" s="197" t="s">
+      <c r="A48" s="235"/>
+      <c r="B48" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="228"/>
-      <c r="D48" s="228"/>
+      <c r="C48" s="239"/>
+      <c r="D48" s="239"/>
       <c r="E48" s="100"/>
-      <c r="F48" s="197" t="s">
+      <c r="F48" s="201" t="s">
         <v>302</v>
       </c>
-      <c r="G48" s="197"/>
-      <c r="H48" s="197"/>
-      <c r="I48" s="197"/>
-      <c r="J48" s="197"/>
-      <c r="K48" s="198"/>
+      <c r="G48" s="201"/>
+      <c r="H48" s="201"/>
+      <c r="I48" s="201"/>
+      <c r="J48" s="201"/>
+      <c r="K48" s="202"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="229" t="s">
+      <c r="A49" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="230"/>
-      <c r="C49" s="230"/>
-      <c r="D49" s="230"/>
-      <c r="E49" s="230"/>
-      <c r="F49" s="197" t="s">
+      <c r="B49" s="244"/>
+      <c r="C49" s="244"/>
+      <c r="D49" s="244"/>
+      <c r="E49" s="244"/>
+      <c r="F49" s="201" t="s">
         <v>249</v>
       </c>
-      <c r="G49" s="197"/>
-      <c r="H49" s="197"/>
-      <c r="I49" s="197"/>
-      <c r="J49" s="197"/>
-      <c r="K49" s="198"/>
+      <c r="G49" s="201"/>
+      <c r="H49" s="201"/>
+      <c r="I49" s="201"/>
+      <c r="J49" s="201"/>
+      <c r="K49" s="202"/>
     </row>
     <row r="50" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="225" t="s">
+      <c r="A50" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="226"/>
-      <c r="C50" s="223" t="s">
+      <c r="B50" s="206"/>
+      <c r="C50" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="223"/>
-      <c r="E50" s="223"/>
-      <c r="F50" s="223"/>
+      <c r="D50" s="203"/>
+      <c r="E50" s="203"/>
+      <c r="F50" s="203"/>
       <c r="G50" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="223" t="s">
+      <c r="H50" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="223"/>
-      <c r="J50" s="223"/>
-      <c r="K50" s="224"/>
+      <c r="I50" s="203"/>
+      <c r="J50" s="203"/>
+      <c r="K50" s="204"/>
     </row>
     <row r="51" spans="1:11" customFormat="1">
-      <c r="A51" s="225" t="s">
+      <c r="A51" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="226"/>
-      <c r="C51" s="226"/>
-      <c r="D51" s="226"/>
-      <c r="E51" s="226" t="s">
+      <c r="B51" s="206"/>
+      <c r="C51" s="206"/>
+      <c r="D51" s="206"/>
+      <c r="E51" s="206" t="s">
         <v>303</v>
       </c>
-      <c r="F51" s="226"/>
-      <c r="G51" s="226" t="s">
+      <c r="F51" s="206"/>
+      <c r="G51" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="H51" s="226"/>
-      <c r="I51" s="226"/>
-      <c r="J51" s="226" t="s">
+      <c r="H51" s="206"/>
+      <c r="I51" s="206"/>
+      <c r="J51" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="227"/>
+      <c r="K51" s="207"/>
     </row>
     <row r="52" spans="1:11" customFormat="1" ht="54" customHeight="1">
-      <c r="A52" s="216" t="s">
+      <c r="A52" s="194" t="s">
         <v>181</v>
       </c>
-      <c r="B52" s="217"/>
-      <c r="C52" s="217"/>
-      <c r="D52" s="217"/>
-      <c r="E52" s="217"/>
-      <c r="F52" s="217"/>
-      <c r="G52" s="217"/>
-      <c r="H52" s="217"/>
-      <c r="I52" s="217"/>
-      <c r="J52" s="217"/>
-      <c r="K52" s="218"/>
+      <c r="B52" s="195"/>
+      <c r="C52" s="195"/>
+      <c r="D52" s="195"/>
+      <c r="E52" s="195"/>
+      <c r="F52" s="195"/>
+      <c r="G52" s="195"/>
+      <c r="H52" s="195"/>
+      <c r="I52" s="195"/>
+      <c r="J52" s="195"/>
+      <c r="K52" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A30:A48"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A52:K52"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="F29:K29"/>
@@ -8067,6 +8053,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="A8:A29"/>
     <mergeCell ref="F49:K49"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A30:A48"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.90486111111111112" right="0.51180555555555551" top="0.74791666666666667" bottom="0.55069444444444449" header="0" footer="0"/>
@@ -8096,71 +8096,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="228" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="244" t="s">
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="241" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="244"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="210"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="215"/>
     </row>
     <row r="2" spans="1:11" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="216" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
       <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" s="28" customFormat="1" ht="25.05" customHeight="1">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="256"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="251"/>
       <c r="G3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="257"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="259" t="s">
+      <c r="H3" s="252"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="254" t="s">
         <v>188</v>
       </c>
-      <c r="K3" s="260"/>
+      <c r="K3" s="255"/>
     </row>
     <row r="4" spans="1:11" s="28" customFormat="1" ht="25.05" customHeight="1">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="200" t="s">
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="246"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
       <c r="K4" s="103" t="s">
         <v>190</v>
       </c>
@@ -8201,7 +8201,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="219" t="s">
+      <c r="A6" s="197" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="7">
@@ -8222,24 +8222,24 @@
       <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="219"/>
-      <c r="B7" s="197" t="s">
+      <c r="A7" s="197"/>
+      <c r="B7" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
       <c r="E7" s="100"/>
-      <c r="F7" s="197" t="s">
+      <c r="F7" s="201" t="s">
         <v>306</v>
       </c>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="198"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="202"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="219" t="s">
+      <c r="A8" s="197" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="7">
@@ -8258,7 +8258,7 @@
       <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:11" ht="28.8">
-      <c r="A9" s="219"/>
+      <c r="A9" s="197"/>
       <c r="B9" s="108" t="s">
         <v>23</v>
       </c>
@@ -8277,7 +8277,7 @@
       <c r="K9" s="52"/>
     </row>
     <row r="10" spans="1:11" ht="28.8">
-      <c r="A10" s="219"/>
+      <c r="A10" s="197"/>
       <c r="B10" s="108" t="s">
         <v>308</v>
       </c>
@@ -8296,7 +8296,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="30">
-      <c r="A11" s="219"/>
+      <c r="A11" s="197"/>
       <c r="B11" s="108" t="s">
         <v>26</v>
       </c>
@@ -8315,7 +8315,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="28.8">
-      <c r="A12" s="219"/>
+      <c r="A12" s="197"/>
       <c r="B12" s="108" t="s">
         <v>257</v>
       </c>
@@ -8336,7 +8336,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="219"/>
+      <c r="A13" s="197"/>
       <c r="B13" s="108" t="s">
         <v>44</v>
       </c>
@@ -8355,7 +8355,7 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="219"/>
+      <c r="A14" s="197"/>
       <c r="B14" s="108" t="s">
         <v>312</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="28.8">
-      <c r="A15" s="219"/>
+      <c r="A15" s="197"/>
       <c r="B15" s="108" t="s">
         <v>46</v>
       </c>
@@ -8393,7 +8393,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" ht="28.8">
-      <c r="A16" s="219"/>
+      <c r="A16" s="197"/>
       <c r="B16" s="108" t="s">
         <v>314</v>
       </c>
@@ -8412,7 +8412,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="219"/>
+      <c r="A17" s="197"/>
       <c r="B17" s="108" t="s">
         <v>57</v>
       </c>
@@ -8431,7 +8431,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="219"/>
+      <c r="A18" s="197"/>
       <c r="B18" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -8448,7 +8448,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="219"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="7" t="s">
         <v>317</v>
       </c>
@@ -8467,7 +8467,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="219"/>
+      <c r="A20" s="197"/>
       <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
@@ -8486,7 +8486,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="219"/>
+      <c r="A21" s="197"/>
       <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
@@ -8505,7 +8505,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:13" ht="43.2">
-      <c r="A22" s="219"/>
+      <c r="A22" s="197"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -8524,7 +8524,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:13" ht="43.2">
-      <c r="A23" s="219"/>
+      <c r="A23" s="197"/>
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
@@ -8543,7 +8543,7 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:13" ht="28.8">
-      <c r="A24" s="219"/>
+      <c r="A24" s="197"/>
       <c r="B24" s="7" t="s">
         <v>32</v>
       </c>
@@ -8562,24 +8562,24 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="219"/>
-      <c r="B25" s="197" t="s">
+      <c r="A25" s="197"/>
+      <c r="B25" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="203"/>
-      <c r="D25" s="203"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="208"/>
       <c r="E25" s="100"/>
-      <c r="F25" s="197" t="s">
+      <c r="F25" s="201" t="s">
         <v>306</v>
       </c>
-      <c r="G25" s="197"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="197"/>
-      <c r="K25" s="198"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="202"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="238" t="s">
+      <c r="A26" s="233" t="s">
         <v>320</v>
       </c>
       <c r="B26" s="73">
@@ -8600,7 +8600,7 @@
       <c r="K26" s="50"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="246"/>
+      <c r="A27" s="256"/>
       <c r="B27" s="73">
         <v>3.2</v>
       </c>
@@ -8619,7 +8619,7 @@
       <c r="K27" s="50"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="246"/>
+      <c r="A28" s="256"/>
       <c r="B28" s="73">
         <v>3.3</v>
       </c>
@@ -8638,7 +8638,7 @@
       <c r="K28" s="50"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="246"/>
+      <c r="A29" s="256"/>
       <c r="B29" s="73">
         <v>3.4</v>
       </c>
@@ -8657,7 +8657,7 @@
       <c r="K29" s="50"/>
     </row>
     <row r="30" spans="1:13" ht="28.8">
-      <c r="A30" s="246"/>
+      <c r="A30" s="256"/>
       <c r="B30" s="73">
         <v>3.5</v>
       </c>
@@ -8676,7 +8676,7 @@
       <c r="K30" s="50"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="247"/>
+      <c r="A31" s="257"/>
       <c r="B31" s="73">
         <v>3.6</v>
       </c>
@@ -8696,25 +8696,25 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="101"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="201" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="197"/>
-      <c r="D32" s="197"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="201"/>
       <c r="E32" s="114"/>
-      <c r="F32" s="197" t="s">
+      <c r="F32" s="201" t="s">
         <v>306</v>
       </c>
-      <c r="G32" s="197"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="198"/>
+      <c r="G32" s="201"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="201"/>
+      <c r="K32" s="202"/>
       <c r="L32" s="26"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:11" ht="28.8">
-      <c r="A33" s="238" t="s">
+      <c r="A33" s="233" t="s">
         <v>327</v>
       </c>
       <c r="B33" s="130">
@@ -8735,7 +8735,7 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="246"/>
+      <c r="A34" s="256"/>
       <c r="B34" s="130">
         <v>4.2</v>
       </c>
@@ -8754,7 +8754,7 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11" ht="28.8">
-      <c r="A35" s="246"/>
+      <c r="A35" s="256"/>
       <c r="B35" s="130">
         <v>4.3</v>
       </c>
@@ -8773,7 +8773,7 @@
       <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" ht="28.8">
-      <c r="A36" s="246"/>
+      <c r="A36" s="256"/>
       <c r="B36" s="130">
         <v>4.4000000000000004</v>
       </c>
@@ -8792,7 +8792,7 @@
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" ht="28.8">
-      <c r="A37" s="246"/>
+      <c r="A37" s="256"/>
       <c r="B37" s="130">
         <v>4.5</v>
       </c>
@@ -8811,7 +8811,7 @@
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="246"/>
+      <c r="A38" s="256"/>
       <c r="B38" s="130">
         <v>4.5999999999999996</v>
       </c>
@@ -8830,7 +8830,7 @@
       <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:11" ht="28.8">
-      <c r="A39" s="246"/>
+      <c r="A39" s="256"/>
       <c r="B39" s="130">
         <v>4.7</v>
       </c>
@@ -8849,7 +8849,7 @@
       <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11" ht="43.2">
-      <c r="A40" s="246"/>
+      <c r="A40" s="256"/>
       <c r="B40" s="130">
         <v>4.8</v>
       </c>
@@ -8868,7 +8868,7 @@
       <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="246"/>
+      <c r="A41" s="256"/>
       <c r="B41" s="130">
         <v>4.9000000000000004</v>
       </c>
@@ -8887,7 +8887,7 @@
       <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11" ht="28.8">
-      <c r="A42" s="247"/>
+      <c r="A42" s="257"/>
       <c r="B42" s="131">
         <v>4.0999999999999996</v>
       </c>
@@ -8907,23 +8907,23 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="101"/>
-      <c r="B43" s="197" t="s">
+      <c r="B43" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="203"/>
-      <c r="D43" s="203"/>
+      <c r="C43" s="208"/>
+      <c r="D43" s="208"/>
       <c r="E43" s="100"/>
-      <c r="F43" s="197" t="s">
+      <c r="F43" s="201" t="s">
         <v>306</v>
       </c>
-      <c r="G43" s="197"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="197"/>
-      <c r="J43" s="197"/>
-      <c r="K43" s="198"/>
+      <c r="G43" s="201"/>
+      <c r="H43" s="201"/>
+      <c r="I43" s="201"/>
+      <c r="J43" s="201"/>
+      <c r="K43" s="202"/>
     </row>
     <row r="44" spans="1:11" ht="43.2">
-      <c r="A44" s="238" t="s">
+      <c r="A44" s="233" t="s">
         <v>333</v>
       </c>
       <c r="B44" s="130">
@@ -8944,7 +8944,7 @@
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" ht="43.2">
-      <c r="A45" s="246"/>
+      <c r="A45" s="256"/>
       <c r="B45" s="130">
         <v>5.2</v>
       </c>
@@ -8963,7 +8963,7 @@
       <c r="K45" s="14"/>
     </row>
     <row r="46" spans="1:11" ht="28.8">
-      <c r="A46" s="246"/>
+      <c r="A46" s="256"/>
       <c r="B46" s="130">
         <v>5.3</v>
       </c>
@@ -8982,7 +8982,7 @@
       <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="246"/>
+      <c r="A47" s="256"/>
       <c r="B47" s="130">
         <v>5.4</v>
       </c>
@@ -9001,7 +9001,7 @@
       <c r="K47" s="14"/>
     </row>
     <row r="48" spans="1:11" ht="57.6">
-      <c r="A48" s="246"/>
+      <c r="A48" s="256"/>
       <c r="B48" s="130">
         <v>5.5</v>
       </c>
@@ -9020,7 +9020,7 @@
       <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="246"/>
+      <c r="A49" s="256"/>
       <c r="B49" s="130">
         <v>5.6</v>
       </c>
@@ -9039,7 +9039,7 @@
       <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:11" ht="28.8">
-      <c r="A50" s="246"/>
+      <c r="A50" s="256"/>
       <c r="B50" s="130">
         <v>5.7</v>
       </c>
@@ -9058,7 +9058,7 @@
       <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11" ht="43.2">
-      <c r="A51" s="246"/>
+      <c r="A51" s="256"/>
       <c r="B51" s="130">
         <v>5.8</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="K51" s="14"/>
     </row>
     <row r="52" spans="1:11" ht="28.8">
-      <c r="A52" s="246"/>
+      <c r="A52" s="256"/>
       <c r="B52" s="130">
         <v>5.9</v>
       </c>
@@ -9096,7 +9096,7 @@
       <c r="K52" s="14"/>
     </row>
     <row r="53" spans="1:11" ht="28.8">
-      <c r="A53" s="247"/>
+      <c r="A53" s="257"/>
       <c r="B53" s="131">
         <v>5.0999999999999996</v>
       </c>
@@ -9116,23 +9116,23 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="101"/>
-      <c r="B54" s="197" t="s">
+      <c r="B54" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="203"/>
-      <c r="D54" s="203"/>
+      <c r="C54" s="208"/>
+      <c r="D54" s="208"/>
       <c r="E54" s="100"/>
-      <c r="F54" s="197" t="s">
+      <c r="F54" s="201" t="s">
         <v>306</v>
       </c>
-      <c r="G54" s="197"/>
-      <c r="H54" s="197"/>
-      <c r="I54" s="197"/>
-      <c r="J54" s="197"/>
-      <c r="K54" s="198"/>
+      <c r="G54" s="201"/>
+      <c r="H54" s="201"/>
+      <c r="I54" s="201"/>
+      <c r="J54" s="201"/>
+      <c r="K54" s="202"/>
     </row>
     <row r="55" spans="1:11" ht="28.8">
-      <c r="A55" s="248" t="s">
+      <c r="A55" s="258" t="s">
         <v>340</v>
       </c>
       <c r="B55" s="73">
@@ -9153,7 +9153,7 @@
       <c r="K55" s="14"/>
     </row>
     <row r="56" spans="1:11" ht="28.8">
-      <c r="A56" s="246"/>
+      <c r="A56" s="256"/>
       <c r="B56" s="73">
         <v>6.2</v>
       </c>
@@ -9172,7 +9172,7 @@
       <c r="K56" s="14"/>
     </row>
     <row r="57" spans="1:11" ht="43.2">
-      <c r="A57" s="246"/>
+      <c r="A57" s="256"/>
       <c r="B57" s="73">
         <v>6.3</v>
       </c>
@@ -9191,7 +9191,7 @@
       <c r="K57" s="14"/>
     </row>
     <row r="58" spans="1:11" ht="43.2">
-      <c r="A58" s="246"/>
+      <c r="A58" s="256"/>
       <c r="B58" s="73">
         <v>6.4</v>
       </c>
@@ -9210,7 +9210,7 @@
       <c r="K58" s="14"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="246"/>
+      <c r="A59" s="256"/>
       <c r="B59" s="73">
         <v>6.5</v>
       </c>
@@ -9229,7 +9229,7 @@
       <c r="K59" s="14"/>
     </row>
     <row r="60" spans="1:11" ht="43.2">
-      <c r="A60" s="246"/>
+      <c r="A60" s="256"/>
       <c r="B60" s="73">
         <v>6.6</v>
       </c>
@@ -9248,7 +9248,7 @@
       <c r="K60" s="14"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="246"/>
+      <c r="A61" s="256"/>
       <c r="B61" s="73">
         <v>6.7</v>
       </c>
@@ -9267,7 +9267,7 @@
       <c r="K61" s="14"/>
     </row>
     <row r="62" spans="1:11" ht="28.8">
-      <c r="A62" s="246"/>
+      <c r="A62" s="256"/>
       <c r="B62" s="73">
         <v>6.8</v>
       </c>
@@ -9286,7 +9286,7 @@
       <c r="K62" s="14"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="246"/>
+      <c r="A63" s="256"/>
       <c r="B63" s="73">
         <v>6.9</v>
       </c>
@@ -9305,7 +9305,7 @@
       <c r="K63" s="14"/>
     </row>
     <row r="64" spans="1:11" ht="28.8">
-      <c r="A64" s="246"/>
+      <c r="A64" s="256"/>
       <c r="B64" s="132">
         <v>6.1</v>
       </c>
@@ -9324,7 +9324,7 @@
       <c r="K64" s="14"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="247"/>
+      <c r="A65" s="257"/>
       <c r="B65" s="132">
         <v>6.11</v>
       </c>
@@ -9344,23 +9344,23 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="101"/>
-      <c r="B66" s="197" t="s">
+      <c r="B66" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="203"/>
-      <c r="D66" s="203"/>
+      <c r="C66" s="208"/>
+      <c r="D66" s="208"/>
       <c r="E66" s="100"/>
-      <c r="F66" s="197" t="s">
+      <c r="F66" s="201" t="s">
         <v>306</v>
       </c>
-      <c r="G66" s="197"/>
-      <c r="H66" s="197"/>
-      <c r="I66" s="197"/>
-      <c r="J66" s="197"/>
-      <c r="K66" s="198"/>
+      <c r="G66" s="201"/>
+      <c r="H66" s="201"/>
+      <c r="I66" s="201"/>
+      <c r="J66" s="201"/>
+      <c r="K66" s="202"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="248" t="s">
+      <c r="A67" s="258" t="s">
         <v>350</v>
       </c>
       <c r="B67" s="130">
@@ -9381,7 +9381,7 @@
       <c r="K67" s="14"/>
     </row>
     <row r="68" spans="1:11" ht="28.8">
-      <c r="A68" s="246"/>
+      <c r="A68" s="256"/>
       <c r="B68" s="130">
         <v>7.2</v>
       </c>
@@ -9400,7 +9400,7 @@
       <c r="K68" s="14"/>
     </row>
     <row r="69" spans="1:11" ht="28.8">
-      <c r="A69" s="246"/>
+      <c r="A69" s="256"/>
       <c r="B69" s="130">
         <v>7.3</v>
       </c>
@@ -9419,7 +9419,7 @@
       <c r="K69" s="14"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="246"/>
+      <c r="A70" s="256"/>
       <c r="B70" s="130">
         <v>7.4</v>
       </c>
@@ -9438,7 +9438,7 @@
       <c r="K70" s="14"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="246"/>
+      <c r="A71" s="256"/>
       <c r="B71" s="130">
         <v>7.5</v>
       </c>
@@ -9457,7 +9457,7 @@
       <c r="K71" s="14"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="246"/>
+      <c r="A72" s="256"/>
       <c r="B72" s="130">
         <v>7.6</v>
       </c>
@@ -9476,7 +9476,7 @@
       <c r="K72" s="14"/>
     </row>
     <row r="73" spans="1:11" ht="43.2">
-      <c r="A73" s="246"/>
+      <c r="A73" s="256"/>
       <c r="B73" s="130">
         <v>7.7</v>
       </c>
@@ -9495,7 +9495,7 @@
       <c r="K73" s="14"/>
     </row>
     <row r="74" spans="1:11" ht="28.8">
-      <c r="A74" s="246"/>
+      <c r="A74" s="256"/>
       <c r="B74" s="130">
         <v>7.8</v>
       </c>
@@ -9514,7 +9514,7 @@
       <c r="K74" s="14"/>
     </row>
     <row r="75" spans="1:11" ht="43.2">
-      <c r="A75" s="246"/>
+      <c r="A75" s="256"/>
       <c r="B75" s="130">
         <v>7.9</v>
       </c>
@@ -9533,7 +9533,7 @@
       <c r="K75" s="14"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="246"/>
+      <c r="A76" s="256"/>
       <c r="B76" s="131">
         <v>7.1</v>
       </c>
@@ -9552,7 +9552,7 @@
       <c r="K76" s="14"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="246"/>
+      <c r="A77" s="256"/>
       <c r="B77" s="131">
         <v>7.11</v>
       </c>
@@ -9571,7 +9571,7 @@
       <c r="K77" s="14"/>
     </row>
     <row r="78" spans="1:11" ht="28.8">
-      <c r="A78" s="246"/>
+      <c r="A78" s="256"/>
       <c r="B78" s="131">
         <v>7.12</v>
       </c>
@@ -9590,7 +9590,7 @@
       <c r="K78" s="14"/>
     </row>
     <row r="79" spans="1:11" ht="28.8">
-      <c r="A79" s="247"/>
+      <c r="A79" s="257"/>
       <c r="B79" s="131">
         <v>7.13</v>
       </c>
@@ -9610,120 +9610,102 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="101"/>
-      <c r="B80" s="197" t="s">
+      <c r="B80" s="201" t="s">
         <v>236</v>
       </c>
-      <c r="C80" s="203"/>
-      <c r="D80" s="203"/>
+      <c r="C80" s="208"/>
+      <c r="D80" s="208"/>
       <c r="E80" s="25"/>
-      <c r="F80" s="197" t="s">
+      <c r="F80" s="201" t="s">
         <v>306</v>
       </c>
-      <c r="G80" s="197"/>
-      <c r="H80" s="197"/>
-      <c r="I80" s="197"/>
-      <c r="J80" s="197"/>
-      <c r="K80" s="198"/>
+      <c r="G80" s="201"/>
+      <c r="H80" s="201"/>
+      <c r="I80" s="201"/>
+      <c r="J80" s="201"/>
+      <c r="K80" s="202"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="249" t="s">
+      <c r="A81" s="259" t="s">
         <v>237</v>
       </c>
-      <c r="B81" s="250"/>
-      <c r="C81" s="250"/>
-      <c r="D81" s="250"/>
-      <c r="E81" s="251"/>
-      <c r="F81" s="197" t="s">
+      <c r="B81" s="260"/>
+      <c r="C81" s="260"/>
+      <c r="D81" s="260"/>
+      <c r="E81" s="261"/>
+      <c r="F81" s="201" t="s">
         <v>306</v>
       </c>
-      <c r="G81" s="197"/>
-      <c r="H81" s="197"/>
-      <c r="I81" s="197"/>
-      <c r="J81" s="197"/>
-      <c r="K81" s="198"/>
+      <c r="G81" s="201"/>
+      <c r="H81" s="201"/>
+      <c r="I81" s="201"/>
+      <c r="J81" s="201"/>
+      <c r="K81" s="202"/>
     </row>
     <row r="82" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="225" t="s">
+      <c r="A82" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="226"/>
-      <c r="C82" s="223" t="s">
+      <c r="B82" s="206"/>
+      <c r="C82" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="D82" s="223"/>
-      <c r="E82" s="223"/>
-      <c r="F82" s="223"/>
+      <c r="D82" s="203"/>
+      <c r="E82" s="203"/>
+      <c r="F82" s="203"/>
       <c r="G82" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="H82" s="223" t="s">
+      <c r="H82" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="I82" s="223"/>
-      <c r="J82" s="223"/>
-      <c r="K82" s="224"/>
+      <c r="I82" s="203"/>
+      <c r="J82" s="203"/>
+      <c r="K82" s="204"/>
     </row>
     <row r="83" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="225" t="s">
+      <c r="A83" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="226"/>
-      <c r="C83" s="226"/>
-      <c r="D83" s="226"/>
-      <c r="E83" s="226" t="s">
+      <c r="B83" s="206"/>
+      <c r="C83" s="206"/>
+      <c r="D83" s="206"/>
+      <c r="E83" s="206" t="s">
         <v>238</v>
       </c>
-      <c r="F83" s="226"/>
-      <c r="G83" s="226" t="s">
+      <c r="F83" s="206"/>
+      <c r="G83" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="H83" s="226"/>
-      <c r="I83" s="226"/>
-      <c r="J83" s="226" t="s">
+      <c r="H83" s="206"/>
+      <c r="I83" s="206"/>
+      <c r="J83" s="206" t="s">
         <v>239</v>
       </c>
-      <c r="K83" s="227"/>
+      <c r="K83" s="207"/>
     </row>
     <row r="84" spans="1:11" ht="57" customHeight="1">
-      <c r="A84" s="216" t="s">
+      <c r="A84" s="194" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="217"/>
-      <c r="C84" s="217"/>
-      <c r="D84" s="217"/>
-      <c r="E84" s="217"/>
-      <c r="F84" s="217"/>
-      <c r="G84" s="217"/>
-      <c r="H84" s="217"/>
-      <c r="I84" s="217"/>
-      <c r="J84" s="217"/>
-      <c r="K84" s="218"/>
+      <c r="B84" s="195"/>
+      <c r="C84" s="195"/>
+      <c r="D84" s="195"/>
+      <c r="E84" s="195"/>
+      <c r="F84" s="195"/>
+      <c r="G84" s="195"/>
+      <c r="H84" s="195"/>
+      <c r="I84" s="195"/>
+      <c r="J84" s="195"/>
+      <c r="K84" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A25"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:I83"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="C82:F82"/>
     <mergeCell ref="H82:K82"/>
@@ -9738,11 +9720,29 @@
     <mergeCell ref="F80:K80"/>
     <mergeCell ref="A81:E81"/>
     <mergeCell ref="F81:K81"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A25"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:K25"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.90486111111111112" right="0.51180555555555551" top="0.74791666666666667" bottom="0.55069444444444449" header="0" footer="0"/>
@@ -9782,67 +9782,67 @@
       <c r="D1" s="81"/>
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
-      <c r="G1" s="262" t="s">
+      <c r="G1" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="263"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="81"/>
       <c r="J1" s="81"/>
       <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="288" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="266"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="290"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A3" s="267" t="s">
+      <c r="A3" s="284" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="268"/>
-      <c r="C3" s="268"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="270" t="s">
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="276" t="s">
         <v>361</v>
       </c>
-      <c r="F3" s="268"/>
+      <c r="F3" s="277"/>
       <c r="G3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="272" t="s">
+      <c r="H3" s="278"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="273"/>
+      <c r="K3" s="292"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="284" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="268"/>
-      <c r="C4" s="268"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="270" t="s">
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="285"/>
+      <c r="E4" s="276" t="s">
         <v>363</v>
       </c>
-      <c r="F4" s="268"/>
-      <c r="G4" s="271" t="s">
+      <c r="F4" s="277"/>
+      <c r="G4" s="278" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="271"/>
-      <c r="I4" s="271"/>
-      <c r="J4" s="271"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="278"/>
       <c r="K4" s="94" t="s">
         <v>7</v>
       </c>
@@ -9883,7 +9883,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="172.8">
-      <c r="A6" s="279" t="s">
+      <c r="A6" s="265" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="5">
@@ -9906,24 +9906,24 @@
       <c r="K6" s="98"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="280"/>
-      <c r="B7" s="274" t="s">
+      <c r="A7" s="267"/>
+      <c r="B7" s="279" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="275"/>
-      <c r="D7" s="276"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="281"/>
       <c r="E7" s="74"/>
-      <c r="F7" s="274" t="s">
+      <c r="F7" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="275"/>
-      <c r="J7" s="275"/>
-      <c r="K7" s="277"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="280"/>
+      <c r="J7" s="280"/>
+      <c r="K7" s="282"/>
     </row>
     <row r="8" spans="1:11" ht="28.8">
-      <c r="A8" s="279" t="s">
+      <c r="A8" s="265" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="5">
@@ -9944,7 +9944,7 @@
       <c r="K8" s="98"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="284"/>
+      <c r="A9" s="266"/>
       <c r="B9" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -9963,7 +9963,7 @@
       <c r="K9" s="98"/>
     </row>
     <row r="10" spans="1:11" ht="43.2">
-      <c r="A10" s="284"/>
+      <c r="A10" s="266"/>
       <c r="B10" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -9982,7 +9982,7 @@
       <c r="K10" s="98"/>
     </row>
     <row r="11" spans="1:11" ht="57.6">
-      <c r="A11" s="284"/>
+      <c r="A11" s="266"/>
       <c r="B11" s="5">
         <v>2.4</v>
       </c>
@@ -10001,7 +10001,7 @@
       <c r="K11" s="98"/>
     </row>
     <row r="12" spans="1:11" ht="72">
-      <c r="A12" s="284"/>
+      <c r="A12" s="266"/>
       <c r="B12" s="5">
         <v>2.5</v>
       </c>
@@ -10020,7 +10020,7 @@
       <c r="K12" s="98"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="284"/>
+      <c r="A13" s="266"/>
       <c r="B13" s="5">
         <v>2.6</v>
       </c>
@@ -10039,7 +10039,7 @@
       <c r="K13" s="98"/>
     </row>
     <row r="14" spans="1:11" ht="43.2">
-      <c r="A14" s="284"/>
+      <c r="A14" s="266"/>
       <c r="B14" s="5">
         <v>2.7</v>
       </c>
@@ -10058,7 +10058,7 @@
       <c r="K14" s="98"/>
     </row>
     <row r="15" spans="1:11" ht="28.8">
-      <c r="A15" s="284"/>
+      <c r="A15" s="266"/>
       <c r="B15" s="5">
         <v>2.8</v>
       </c>
@@ -10077,7 +10077,7 @@
       <c r="K15" s="98"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="284"/>
+      <c r="A16" s="266"/>
       <c r="B16" s="68">
         <v>2.9</v>
       </c>
@@ -10096,7 +10096,7 @@
       <c r="K16" s="98"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="284"/>
+      <c r="A17" s="266"/>
       <c r="B17" s="69">
         <v>2.1</v>
       </c>
@@ -10115,7 +10115,7 @@
       <c r="K17" s="98"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="280"/>
+      <c r="A18" s="267"/>
       <c r="B18" s="70">
         <v>2.11</v>
       </c>
@@ -10134,7 +10134,7 @@
       <c r="K18" s="98"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="238" t="s">
+      <c r="A19" s="233" t="s">
         <v>89</v>
       </c>
       <c r="B19" s="70">
@@ -10155,7 +10155,7 @@
       <c r="K19" s="98"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="239"/>
+      <c r="A20" s="234"/>
       <c r="B20" s="70">
         <v>3.2</v>
       </c>
@@ -10174,7 +10174,7 @@
       <c r="K20" s="98"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="239"/>
+      <c r="A21" s="234"/>
       <c r="B21" s="70">
         <v>3.3</v>
       </c>
@@ -10193,7 +10193,7 @@
       <c r="K21" s="98"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="239"/>
+      <c r="A22" s="234"/>
       <c r="B22" s="70">
         <v>3.4</v>
       </c>
@@ -10212,7 +10212,7 @@
       <c r="K22" s="98"/>
     </row>
     <row r="23" spans="1:11" ht="28.8">
-      <c r="A23" s="239"/>
+      <c r="A23" s="234"/>
       <c r="B23" s="70">
         <v>3.5</v>
       </c>
@@ -10231,7 +10231,7 @@
       <c r="K23" s="98"/>
     </row>
     <row r="24" spans="1:11" ht="28.8">
-      <c r="A24" s="239"/>
+      <c r="A24" s="234"/>
       <c r="B24" s="70">
         <v>3.6</v>
       </c>
@@ -10250,7 +10250,7 @@
       <c r="K24" s="98"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="239"/>
+      <c r="A25" s="234"/>
       <c r="B25" s="70">
         <v>3.7</v>
       </c>
@@ -10269,7 +10269,7 @@
       <c r="K25" s="98"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="239"/>
+      <c r="A26" s="234"/>
       <c r="B26" s="70">
         <v>3.8</v>
       </c>
@@ -10288,7 +10288,7 @@
       <c r="K26" s="98"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="239"/>
+      <c r="A27" s="234"/>
       <c r="B27" s="70">
         <v>3.9</v>
       </c>
@@ -10307,7 +10307,7 @@
       <c r="K27" s="98"/>
     </row>
     <row r="28" spans="1:11" ht="28.8">
-      <c r="A28" s="239"/>
+      <c r="A28" s="234"/>
       <c r="B28" s="69">
         <v>3.1</v>
       </c>
@@ -10328,7 +10328,7 @@
       <c r="K28" s="98"/>
     </row>
     <row r="29" spans="1:11" ht="28.8">
-      <c r="A29" s="239"/>
+      <c r="A29" s="234"/>
       <c r="B29" s="70">
         <v>3.11</v>
       </c>
@@ -10349,7 +10349,7 @@
       <c r="K29" s="98"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="239"/>
+      <c r="A30" s="234"/>
       <c r="B30" s="70">
         <v>3.12</v>
       </c>
@@ -10368,7 +10368,7 @@
       <c r="K30" s="98"/>
     </row>
     <row r="31" spans="1:11" ht="28.8">
-      <c r="A31" s="239"/>
+      <c r="A31" s="234"/>
       <c r="B31" s="70">
         <v>3.13</v>
       </c>
@@ -10387,7 +10387,7 @@
       <c r="K31" s="98"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="239"/>
+      <c r="A32" s="234"/>
       <c r="B32" s="70">
         <v>3.14</v>
       </c>
@@ -10408,98 +10408,114 @@
       <c r="K32" s="98"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="240"/>
-      <c r="B33" s="274" t="s">
+      <c r="A33" s="235"/>
+      <c r="B33" s="279" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="275"/>
-      <c r="D33" s="276"/>
+      <c r="C33" s="280"/>
+      <c r="D33" s="281"/>
       <c r="E33" s="74"/>
-      <c r="F33" s="274" t="s">
+      <c r="F33" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="275"/>
-      <c r="H33" s="275"/>
-      <c r="I33" s="275"/>
-      <c r="J33" s="275"/>
-      <c r="K33" s="277"/>
+      <c r="G33" s="280"/>
+      <c r="H33" s="280"/>
+      <c r="I33" s="280"/>
+      <c r="J33" s="280"/>
+      <c r="K33" s="282"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="278" t="s">
+      <c r="A34" s="283" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="275"/>
-      <c r="C34" s="275"/>
-      <c r="D34" s="276"/>
+      <c r="B34" s="280"/>
+      <c r="C34" s="280"/>
+      <c r="D34" s="281"/>
       <c r="E34" s="74"/>
-      <c r="F34" s="274" t="s">
+      <c r="F34" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="275"/>
-      <c r="H34" s="275"/>
-      <c r="I34" s="275"/>
-      <c r="J34" s="275"/>
-      <c r="K34" s="277"/>
+      <c r="G34" s="280"/>
+      <c r="H34" s="280"/>
+      <c r="I34" s="280"/>
+      <c r="J34" s="280"/>
+      <c r="K34" s="282"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="285" t="s">
+      <c r="A35" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="286"/>
-      <c r="C35" s="287" t="s">
+      <c r="B35" s="269"/>
+      <c r="C35" s="270" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="288"/>
-      <c r="E35" s="288"/>
-      <c r="F35" s="289"/>
+      <c r="D35" s="271"/>
+      <c r="E35" s="271"/>
+      <c r="F35" s="272"/>
       <c r="G35" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="290" t="s">
+      <c r="H35" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="290"/>
-      <c r="J35" s="290"/>
-      <c r="K35" s="291"/>
+      <c r="I35" s="273"/>
+      <c r="J35" s="273"/>
+      <c r="K35" s="274"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="285" t="s">
+      <c r="A36" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="286"/>
-      <c r="C36" s="286"/>
-      <c r="D36" s="286"/>
-      <c r="E36" s="286" t="s">
+      <c r="B36" s="269"/>
+      <c r="C36" s="269"/>
+      <c r="D36" s="269"/>
+      <c r="E36" s="269" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="286"/>
-      <c r="G36" s="286" t="s">
+      <c r="F36" s="269"/>
+      <c r="G36" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="286"/>
-      <c r="I36" s="286"/>
-      <c r="J36" s="286" t="s">
+      <c r="H36" s="269"/>
+      <c r="I36" s="269"/>
+      <c r="J36" s="269" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="292"/>
+      <c r="K36" s="275"/>
     </row>
     <row r="37" spans="1:11" ht="57" customHeight="1" thickBot="1">
-      <c r="A37" s="281" t="s">
+      <c r="A37" s="262" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="282"/>
-      <c r="C37" s="282"/>
-      <c r="D37" s="282"/>
-      <c r="E37" s="282"/>
-      <c r="F37" s="282"/>
-      <c r="G37" s="282"/>
-      <c r="H37" s="282"/>
-      <c r="I37" s="282"/>
-      <c r="J37" s="282"/>
-      <c r="K37" s="283"/>
+      <c r="B37" s="263"/>
+      <c r="C37" s="263"/>
+      <c r="D37" s="263"/>
+      <c r="E37" s="263"/>
+      <c r="F37" s="263"/>
+      <c r="G37" s="263"/>
+      <c r="H37" s="263"/>
+      <c r="I37" s="263"/>
+      <c r="J37" s="263"/>
+      <c r="K37" s="264"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A37:K37"/>
     <mergeCell ref="A8:A18"/>
     <mergeCell ref="A19:A33"/>
@@ -10510,22 +10526,6 @@
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.90486111111111112" right="0.51180555555555551" top="0.74791666666666667" bottom="0.55069444444444449" header="0" footer="0"/>
@@ -10556,71 +10556,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.2">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="299" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="296" t="s">
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="301" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="297"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="302"/>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="303" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="293"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="299"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="304"/>
     </row>
     <row r="3" spans="1:11" ht="17.399999999999999">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="303" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
       <c r="G3" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="300" t="s">
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="305" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="301"/>
+      <c r="K3" s="306"/>
     </row>
     <row r="4" spans="1:11" ht="17.399999999999999">
-      <c r="A4" s="298" t="s">
+      <c r="A4" s="303" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="293"/>
-      <c r="C4" s="293"/>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293" t="s">
+      <c r="B4" s="298"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="298" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="293"/>
-      <c r="I4" s="293"/>
-      <c r="J4" s="293"/>
+      <c r="H4" s="298"/>
+      <c r="I4" s="298"/>
+      <c r="J4" s="298"/>
       <c r="K4" s="89" t="s">
         <v>7</v>
       </c>
@@ -10661,7 +10661,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="258" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="5">
@@ -10680,7 +10680,7 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="302"/>
+      <c r="A7" s="293"/>
       <c r="B7" s="16">
         <v>1.1000000000000001</v>
       </c>
@@ -10699,7 +10699,7 @@
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="302"/>
+      <c r="A8" s="293"/>
       <c r="B8" s="16">
         <v>1.2</v>
       </c>
@@ -10718,7 +10718,7 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="302"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="16">
         <v>1.3</v>
       </c>
@@ -10737,24 +10737,24 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="303"/>
-      <c r="B10" s="274" t="s">
+      <c r="A10" s="294"/>
+      <c r="B10" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="275"/>
-      <c r="D10" s="276"/>
+      <c r="C10" s="280"/>
+      <c r="D10" s="281"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="274" t="s">
+      <c r="F10" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="275"/>
-      <c r="H10" s="275"/>
-      <c r="I10" s="275"/>
-      <c r="J10" s="275"/>
-      <c r="K10" s="277"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="280"/>
+      <c r="K10" s="282"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="248" t="s">
+      <c r="A11" s="258" t="s">
         <v>106</v>
       </c>
       <c r="B11" s="5">
@@ -10773,7 +10773,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="43.2">
-      <c r="A12" s="302"/>
+      <c r="A12" s="293"/>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
@@ -10792,7 +10792,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="57.6">
-      <c r="A13" s="302"/>
+      <c r="A13" s="293"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
@@ -10811,7 +10811,7 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="43.2">
-      <c r="A14" s="302"/>
+      <c r="A14" s="293"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
@@ -10830,7 +10830,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="43.2">
-      <c r="A15" s="302"/>
+      <c r="A15" s="293"/>
       <c r="B15" s="16" t="s">
         <v>43</v>
       </c>
@@ -10849,7 +10849,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="302"/>
+      <c r="A16" s="293"/>
       <c r="B16" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -10866,7 +10866,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" ht="72">
-      <c r="A17" s="302"/>
+      <c r="A17" s="293"/>
       <c r="B17" s="16" t="s">
         <v>27</v>
       </c>
@@ -10885,7 +10885,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="316.8">
-      <c r="A18" s="302"/>
+      <c r="A18" s="293"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
@@ -10904,7 +10904,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" ht="57.6">
-      <c r="A19" s="302"/>
+      <c r="A19" s="293"/>
       <c r="B19" s="16" t="s">
         <v>29</v>
       </c>
@@ -10923,95 +10923,95 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="303"/>
-      <c r="B20" s="274" t="s">
+      <c r="A20" s="294"/>
+      <c r="B20" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="275"/>
-      <c r="D20" s="276"/>
+      <c r="C20" s="280"/>
+      <c r="D20" s="281"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="274" t="s">
+      <c r="F20" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="275"/>
-      <c r="H20" s="275"/>
-      <c r="I20" s="275"/>
-      <c r="J20" s="275"/>
-      <c r="K20" s="277"/>
+      <c r="G20" s="280"/>
+      <c r="H20" s="280"/>
+      <c r="I20" s="280"/>
+      <c r="J20" s="280"/>
+      <c r="K20" s="282"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="278" t="s">
+      <c r="A21" s="283" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="275"/>
-      <c r="C21" s="275"/>
-      <c r="D21" s="276"/>
+      <c r="B21" s="280"/>
+      <c r="C21" s="280"/>
+      <c r="D21" s="281"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="274" t="s">
+      <c r="F21" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="275"/>
-      <c r="H21" s="275"/>
-      <c r="I21" s="275"/>
-      <c r="J21" s="275"/>
-      <c r="K21" s="277"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="280"/>
+      <c r="K21" s="282"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="225" t="s">
+      <c r="A22" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="226"/>
-      <c r="C22" s="223" t="s">
+      <c r="B22" s="206"/>
+      <c r="C22" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
       <c r="F22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="223" t="s">
+      <c r="G22" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="224"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="204"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="225" t="s">
+      <c r="A23" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="226"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="226"/>
+      <c r="B23" s="206"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="206"/>
       <c r="E23" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="226" t="s">
+      <c r="F23" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="226"/>
-      <c r="H23" s="226"/>
-      <c r="I23" s="304" t="s">
+      <c r="G23" s="206"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="295" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="305"/>
-      <c r="K23" s="306"/>
+      <c r="J23" s="296"/>
+      <c r="K23" s="297"/>
     </row>
     <row r="24" spans="1:11" ht="73.5" customHeight="1">
-      <c r="A24" s="281" t="s">
+      <c r="A24" s="262" t="s">
         <v>181</v>
       </c>
-      <c r="B24" s="282"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="282"/>
-      <c r="E24" s="282"/>
-      <c r="F24" s="282"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="282"/>
-      <c r="I24" s="282"/>
-      <c r="J24" s="282"/>
-      <c r="K24" s="283"/>
+      <c r="B24" s="263"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="263"/>
+      <c r="F24" s="263"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="263"/>
+      <c r="I24" s="263"/>
+      <c r="J24" s="263"/>
+      <c r="K24" s="264"/>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="2"/>
@@ -11141,21 +11141,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -11167,6 +11152,21 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:K20"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.90486111111111112" right="0.51180555555555551" top="0.74791666666666667" bottom="0.55069444444444449" header="0" footer="0"/>
@@ -11208,75 +11208,75 @@
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
       <c r="G1" s="82"/>
-      <c r="H1" s="313" t="s">
+      <c r="H1" s="333" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="314"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="316"/>
-      <c r="L1" s="317"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="337"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="288" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="266"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="289"/>
+      <c r="L2" s="290"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="320"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="339"/>
+      <c r="G3" s="340"/>
       <c r="H3" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="300" t="s">
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="305" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="301"/>
+      <c r="L3" s="306"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="284" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="268"/>
-      <c r="C4" s="268"/>
-      <c r="D4" s="268"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="308"/>
-      <c r="H4" s="307" t="s">
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="285"/>
+      <c r="F4" s="341"/>
+      <c r="G4" s="342"/>
+      <c r="H4" s="341" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="308"/>
-      <c r="J4" s="308"/>
-      <c r="K4" s="309"/>
+      <c r="I4" s="342"/>
+      <c r="J4" s="342"/>
+      <c r="K4" s="343"/>
       <c r="L4" s="84" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" customHeight="1">
-      <c r="A5" s="310" t="s">
+      <c r="A5" s="344" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="311"/>
+      <c r="B5" s="345"/>
       <c r="C5" s="85" t="s">
         <v>9</v>
       </c>
@@ -11309,10 +11309,10 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="326" t="s">
+      <c r="A6" s="324" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="327"/>
+      <c r="B6" s="325"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -11329,8 +11329,8 @@
       <c r="L6" s="77"/>
     </row>
     <row r="7" spans="1:12" ht="28.8">
-      <c r="A7" s="328"/>
-      <c r="B7" s="329"/>
+      <c r="A7" s="326"/>
+      <c r="B7" s="327"/>
       <c r="C7" s="16">
         <v>1.1000000000000001</v>
       </c>
@@ -11349,8 +11349,8 @@
       <c r="L7" s="77"/>
     </row>
     <row r="8" spans="1:12" ht="28.8">
-      <c r="A8" s="328"/>
-      <c r="B8" s="329"/>
+      <c r="A8" s="326"/>
+      <c r="B8" s="327"/>
       <c r="C8" s="16">
         <v>1.2</v>
       </c>
@@ -11369,8 +11369,8 @@
       <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:12" ht="28.8">
-      <c r="A9" s="328"/>
-      <c r="B9" s="329"/>
+      <c r="A9" s="326"/>
+      <c r="B9" s="327"/>
       <c r="C9" s="16">
         <v>1.3</v>
       </c>
@@ -11389,8 +11389,8 @@
       <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:12" ht="28.8">
-      <c r="A10" s="328"/>
-      <c r="B10" s="329"/>
+      <c r="A10" s="326"/>
+      <c r="B10" s="327"/>
       <c r="C10" s="16">
         <v>1.4</v>
       </c>
@@ -11409,28 +11409,28 @@
       <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="330"/>
-      <c r="B11" s="331"/>
-      <c r="C11" s="312" t="s">
+      <c r="A11" s="328"/>
+      <c r="B11" s="329"/>
+      <c r="C11" s="332" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="275"/>
-      <c r="E11" s="276"/>
+      <c r="D11" s="280"/>
+      <c r="E11" s="281"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="274" t="s">
+      <c r="G11" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="275"/>
-      <c r="I11" s="275"/>
-      <c r="J11" s="275"/>
-      <c r="K11" s="275"/>
-      <c r="L11" s="277"/>
+      <c r="H11" s="280"/>
+      <c r="I11" s="280"/>
+      <c r="J11" s="280"/>
+      <c r="K11" s="280"/>
+      <c r="L11" s="282"/>
     </row>
     <row r="12" spans="1:12" ht="28.8">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="240" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="324" t="s">
+      <c r="B12" s="311" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="16">
@@ -11451,8 +11451,8 @@
       <c r="L12" s="77"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="231"/>
-      <c r="B13" s="332"/>
+      <c r="A13" s="240"/>
+      <c r="B13" s="312"/>
       <c r="C13" s="16">
         <v>2.2000000000000002</v>
       </c>
@@ -11471,8 +11471,8 @@
       <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:12" ht="28.8">
-      <c r="A14" s="231"/>
-      <c r="B14" s="332"/>
+      <c r="A14" s="240"/>
+      <c r="B14" s="312"/>
       <c r="C14" s="16">
         <v>2.2999999999999998</v>
       </c>
@@ -11491,8 +11491,8 @@
       <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:12" ht="72">
-      <c r="A15" s="231"/>
-      <c r="B15" s="332"/>
+      <c r="A15" s="240"/>
+      <c r="B15" s="312"/>
       <c r="C15" s="16">
         <v>2.4</v>
       </c>
@@ -11511,8 +11511,8 @@
       <c r="L15" s="77"/>
     </row>
     <row r="16" spans="1:12" ht="43.2">
-      <c r="A16" s="231"/>
-      <c r="B16" s="332"/>
+      <c r="A16" s="240"/>
+      <c r="B16" s="312"/>
       <c r="C16" s="16">
         <v>2.5</v>
       </c>
@@ -11531,8 +11531,8 @@
       <c r="L16" s="77"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="231"/>
-      <c r="B17" s="332"/>
+      <c r="A17" s="240"/>
+      <c r="B17" s="312"/>
       <c r="C17" s="16">
         <v>2.6</v>
       </c>
@@ -11551,8 +11551,8 @@
       <c r="L17" s="77"/>
     </row>
     <row r="18" spans="1:12" ht="28.8">
-      <c r="A18" s="231"/>
-      <c r="B18" s="332"/>
+      <c r="A18" s="240"/>
+      <c r="B18" s="312"/>
       <c r="C18" s="16">
         <v>2.7</v>
       </c>
@@ -11571,8 +11571,8 @@
       <c r="L18" s="77"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="231"/>
-      <c r="B19" s="332"/>
+      <c r="A19" s="240"/>
+      <c r="B19" s="312"/>
       <c r="C19" s="16">
         <v>2.8</v>
       </c>
@@ -11591,8 +11591,8 @@
       <c r="L19" s="77"/>
     </row>
     <row r="20" spans="1:12" ht="28.8">
-      <c r="A20" s="231"/>
-      <c r="B20" s="332"/>
+      <c r="A20" s="240"/>
+      <c r="B20" s="312"/>
       <c r="C20" s="16">
         <v>2.9</v>
       </c>
@@ -11611,8 +11611,8 @@
       <c r="L20" s="77"/>
     </row>
     <row r="21" spans="1:12" ht="28.8">
-      <c r="A21" s="231"/>
-      <c r="B21" s="332"/>
+      <c r="A21" s="240"/>
+      <c r="B21" s="312"/>
       <c r="C21" s="34">
         <v>2.1</v>
       </c>
@@ -11631,8 +11631,8 @@
       <c r="L21" s="77"/>
     </row>
     <row r="22" spans="1:12" ht="28.8">
-      <c r="A22" s="231"/>
-      <c r="B22" s="325"/>
+      <c r="A22" s="240"/>
+      <c r="B22" s="322"/>
       <c r="C22" s="34">
         <v>2.11</v>
       </c>
@@ -11651,7 +11651,7 @@
       <c r="L22" s="77"/>
     </row>
     <row r="23" spans="1:12" ht="100.8">
-      <c r="A23" s="231"/>
+      <c r="A23" s="240"/>
       <c r="B23" s="35" t="s">
         <v>134</v>
       </c>
@@ -11673,8 +11673,8 @@
       <c r="L23" s="77"/>
     </row>
     <row r="24" spans="1:12" ht="28.8">
-      <c r="A24" s="231"/>
-      <c r="B24" s="324" t="s">
+      <c r="A24" s="240"/>
+      <c r="B24" s="311" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="34">
@@ -11695,8 +11695,8 @@
       <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:12" ht="28.8">
-      <c r="A25" s="231"/>
-      <c r="B25" s="325"/>
+      <c r="A25" s="240"/>
+      <c r="B25" s="322"/>
       <c r="C25" s="34">
         <v>2.14</v>
       </c>
@@ -11715,28 +11715,28 @@
       <c r="L25" s="51"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="231"/>
-      <c r="B26" s="274" t="s">
+      <c r="A26" s="240"/>
+      <c r="B26" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="275"/>
-      <c r="D26" s="275"/>
-      <c r="E26" s="276"/>
+      <c r="C26" s="280"/>
+      <c r="D26" s="280"/>
+      <c r="E26" s="281"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="274" t="s">
+      <c r="G26" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="275"/>
-      <c r="I26" s="275"/>
-      <c r="J26" s="275"/>
-      <c r="K26" s="275"/>
-      <c r="L26" s="277"/>
+      <c r="H26" s="280"/>
+      <c r="I26" s="280"/>
+      <c r="J26" s="280"/>
+      <c r="K26" s="280"/>
+      <c r="L26" s="282"/>
     </row>
     <row r="27" spans="1:12" ht="28.8">
-      <c r="A27" s="221" t="s">
+      <c r="A27" s="199" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="321" t="s">
+      <c r="B27" s="330" t="s">
         <v>122</v>
       </c>
       <c r="C27" s="16">
@@ -11757,8 +11757,8 @@
       <c r="L27" s="77"/>
     </row>
     <row r="28" spans="1:12" ht="43.2">
-      <c r="A28" s="221"/>
-      <c r="B28" s="322"/>
+      <c r="A28" s="199"/>
+      <c r="B28" s="307"/>
       <c r="C28" s="16">
         <v>3.2</v>
       </c>
@@ -11777,8 +11777,8 @@
       <c r="L28" s="77"/>
     </row>
     <row r="29" spans="1:12" ht="57.6">
-      <c r="A29" s="221"/>
-      <c r="B29" s="323"/>
+      <c r="A29" s="199"/>
+      <c r="B29" s="331"/>
       <c r="C29" s="16">
         <v>3.3</v>
       </c>
@@ -11797,28 +11797,28 @@
       <c r="L29" s="77"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="221"/>
-      <c r="B30" s="312" t="s">
+      <c r="A30" s="199"/>
+      <c r="B30" s="332" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="275"/>
-      <c r="D30" s="275"/>
-      <c r="E30" s="276"/>
+      <c r="C30" s="280"/>
+      <c r="D30" s="280"/>
+      <c r="E30" s="281"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="274" t="s">
+      <c r="G30" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="275"/>
-      <c r="I30" s="275"/>
-      <c r="J30" s="275"/>
-      <c r="K30" s="275"/>
-      <c r="L30" s="277"/>
+      <c r="H30" s="280"/>
+      <c r="I30" s="280"/>
+      <c r="J30" s="280"/>
+      <c r="K30" s="280"/>
+      <c r="L30" s="282"/>
     </row>
     <row r="31" spans="1:12" ht="28.8">
-      <c r="A31" s="238" t="s">
+      <c r="A31" s="233" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="322" t="s">
+      <c r="B31" s="307" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="16">
@@ -11839,8 +11839,8 @@
       <c r="L31" s="77"/>
     </row>
     <row r="32" spans="1:12" ht="43.2">
-      <c r="A32" s="239"/>
-      <c r="B32" s="322"/>
+      <c r="A32" s="234"/>
+      <c r="B32" s="307"/>
       <c r="C32" s="36">
         <v>4.2</v>
       </c>
@@ -11859,8 +11859,8 @@
       <c r="L32" s="77"/>
     </row>
     <row r="33" spans="1:12" ht="28.8">
-      <c r="A33" s="239"/>
-      <c r="B33" s="323"/>
+      <c r="A33" s="234"/>
+      <c r="B33" s="331"/>
       <c r="C33" s="16">
         <v>4.3</v>
       </c>
@@ -11879,7 +11879,7 @@
       <c r="L33" s="77"/>
     </row>
     <row r="34" spans="1:12" ht="31.2">
-      <c r="A34" s="239"/>
+      <c r="A34" s="234"/>
       <c r="B34" s="31" t="s">
         <v>134</v>
       </c>
@@ -11901,8 +11901,8 @@
       <c r="L34" s="77"/>
     </row>
     <row r="35" spans="1:12" ht="28.8">
-      <c r="A35" s="239"/>
-      <c r="B35" s="321" t="s">
+      <c r="A35" s="234"/>
+      <c r="B35" s="330" t="s">
         <v>150</v>
       </c>
       <c r="C35" s="16">
@@ -11923,8 +11923,8 @@
       <c r="L35" s="77"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="239"/>
-      <c r="B36" s="323"/>
+      <c r="A36" s="234"/>
+      <c r="B36" s="331"/>
       <c r="C36" s="36">
         <v>4.5999999999999996</v>
       </c>
@@ -11943,28 +11943,28 @@
       <c r="L36" s="77"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="240"/>
-      <c r="B37" s="274" t="s">
+      <c r="A37" s="235"/>
+      <c r="B37" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="275"/>
-      <c r="D37" s="275"/>
-      <c r="E37" s="276"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="280"/>
+      <c r="E37" s="281"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="274" t="s">
+      <c r="G37" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="H37" s="275"/>
-      <c r="I37" s="275"/>
-      <c r="J37" s="275"/>
-      <c r="K37" s="275"/>
-      <c r="L37" s="277"/>
+      <c r="H37" s="280"/>
+      <c r="I37" s="280"/>
+      <c r="J37" s="280"/>
+      <c r="K37" s="280"/>
+      <c r="L37" s="282"/>
     </row>
     <row r="38" spans="1:12" ht="28.8">
-      <c r="A38" s="238" t="s">
+      <c r="A38" s="233" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="321" t="s">
+      <c r="B38" s="330" t="s">
         <v>145</v>
       </c>
       <c r="C38" s="16">
@@ -11985,8 +11985,8 @@
       <c r="L38" s="77"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="239"/>
-      <c r="B39" s="323"/>
+      <c r="A39" s="234"/>
+      <c r="B39" s="331"/>
       <c r="C39" s="16">
         <v>5.2</v>
       </c>
@@ -12005,28 +12005,28 @@
       <c r="L39" s="77"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="240"/>
-      <c r="B40" s="274" t="s">
+      <c r="A40" s="235"/>
+      <c r="B40" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="275"/>
-      <c r="D40" s="275"/>
-      <c r="E40" s="276"/>
+      <c r="C40" s="280"/>
+      <c r="D40" s="280"/>
+      <c r="E40" s="281"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="274" t="s">
+      <c r="G40" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="H40" s="275"/>
-      <c r="I40" s="275"/>
-      <c r="J40" s="275"/>
-      <c r="K40" s="275"/>
-      <c r="L40" s="277"/>
+      <c r="H40" s="280"/>
+      <c r="I40" s="280"/>
+      <c r="J40" s="280"/>
+      <c r="K40" s="280"/>
+      <c r="L40" s="282"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="239" t="s">
+      <c r="A41" s="234" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="322"/>
+      <c r="B41" s="307"/>
       <c r="C41" s="16">
         <v>6.1</v>
       </c>
@@ -12045,8 +12045,8 @@
       <c r="L41" s="77"/>
     </row>
     <row r="42" spans="1:12" ht="57.6">
-      <c r="A42" s="239"/>
-      <c r="B42" s="322"/>
+      <c r="A42" s="234"/>
+      <c r="B42" s="307"/>
       <c r="C42" s="16">
         <v>6.2</v>
       </c>
@@ -12067,8 +12067,8 @@
       <c r="L42" s="77"/>
     </row>
     <row r="43" spans="1:12" ht="28.8">
-      <c r="A43" s="239"/>
-      <c r="B43" s="322"/>
+      <c r="A43" s="234"/>
+      <c r="B43" s="307"/>
       <c r="C43" s="16">
         <v>6.3</v>
       </c>
@@ -12087,8 +12087,8 @@
       <c r="L43" s="77"/>
     </row>
     <row r="44" spans="1:12" ht="28.8">
-      <c r="A44" s="239"/>
-      <c r="B44" s="322"/>
+      <c r="A44" s="234"/>
+      <c r="B44" s="307"/>
       <c r="C44" s="16">
         <v>6.4</v>
       </c>
@@ -12107,28 +12107,28 @@
       <c r="L44" s="77"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="240"/>
-      <c r="B45" s="274" t="s">
+      <c r="A45" s="235"/>
+      <c r="B45" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="275"/>
-      <c r="D45" s="275"/>
-      <c r="E45" s="276"/>
+      <c r="C45" s="280"/>
+      <c r="D45" s="280"/>
+      <c r="E45" s="281"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="274" t="s">
+      <c r="G45" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="H45" s="275"/>
-      <c r="I45" s="275"/>
-      <c r="J45" s="275"/>
-      <c r="K45" s="275"/>
-      <c r="L45" s="277"/>
+      <c r="H45" s="280"/>
+      <c r="I45" s="280"/>
+      <c r="J45" s="280"/>
+      <c r="K45" s="280"/>
+      <c r="L45" s="282"/>
     </row>
     <row r="46" spans="1:12" ht="57.6">
-      <c r="A46" s="231" t="s">
+      <c r="A46" s="240" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="324" t="s">
+      <c r="B46" s="311" t="s">
         <v>145</v>
       </c>
       <c r="C46" s="16">
@@ -12149,8 +12149,8 @@
       <c r="L46" s="77"/>
     </row>
     <row r="47" spans="1:12" ht="28.8">
-      <c r="A47" s="231"/>
-      <c r="B47" s="332"/>
+      <c r="A47" s="240"/>
+      <c r="B47" s="312"/>
       <c r="C47" s="36">
         <v>7.2</v>
       </c>
@@ -12169,8 +12169,8 @@
       <c r="L47" s="77"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="231"/>
-      <c r="B48" s="332"/>
+      <c r="A48" s="240"/>
+      <c r="B48" s="312"/>
       <c r="C48" s="16">
         <v>7.3</v>
       </c>
@@ -12189,28 +12189,28 @@
       <c r="L48" s="77"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="231"/>
-      <c r="B49" s="274" t="s">
+      <c r="A49" s="240"/>
+      <c r="B49" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="275"/>
-      <c r="D49" s="275"/>
-      <c r="E49" s="276"/>
+      <c r="C49" s="280"/>
+      <c r="D49" s="280"/>
+      <c r="E49" s="281"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="274" t="s">
+      <c r="G49" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="H49" s="275"/>
-      <c r="I49" s="275"/>
-      <c r="J49" s="275"/>
-      <c r="K49" s="275"/>
-      <c r="L49" s="277"/>
+      <c r="H49" s="280"/>
+      <c r="I49" s="280"/>
+      <c r="J49" s="280"/>
+      <c r="K49" s="280"/>
+      <c r="L49" s="282"/>
     </row>
     <row r="50" spans="1:12" ht="28.8">
-      <c r="A50" s="231" t="s">
+      <c r="A50" s="240" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="324" t="s">
+      <c r="B50" s="311" t="s">
         <v>167</v>
       </c>
       <c r="C50" s="16">
@@ -12231,8 +12231,8 @@
       <c r="L50" s="77"/>
     </row>
     <row r="51" spans="1:12" ht="57.6">
-      <c r="A51" s="231"/>
-      <c r="B51" s="332"/>
+      <c r="A51" s="240"/>
+      <c r="B51" s="312"/>
       <c r="C51" s="16">
         <v>8.1999999999999993</v>
       </c>
@@ -12251,8 +12251,8 @@
       <c r="L51" s="77"/>
     </row>
     <row r="52" spans="1:12" ht="43.2">
-      <c r="A52" s="231"/>
-      <c r="B52" s="332"/>
+      <c r="A52" s="240"/>
+      <c r="B52" s="312"/>
       <c r="C52" s="16">
         <v>8.3000000000000007</v>
       </c>
@@ -12271,8 +12271,8 @@
       <c r="L52" s="77"/>
     </row>
     <row r="53" spans="1:12" ht="57.6">
-      <c r="A53" s="231"/>
-      <c r="B53" s="332"/>
+      <c r="A53" s="240"/>
+      <c r="B53" s="312"/>
       <c r="C53" s="16">
         <v>8.4</v>
       </c>
@@ -12291,28 +12291,28 @@
       <c r="L53" s="77"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="231"/>
-      <c r="B54" s="274" t="s">
+      <c r="A54" s="240"/>
+      <c r="B54" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="275"/>
-      <c r="D54" s="275"/>
-      <c r="E54" s="276"/>
+      <c r="C54" s="280"/>
+      <c r="D54" s="280"/>
+      <c r="E54" s="281"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="274" t="s">
+      <c r="G54" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="H54" s="275"/>
-      <c r="I54" s="275"/>
-      <c r="J54" s="275"/>
-      <c r="K54" s="275"/>
-      <c r="L54" s="277"/>
+      <c r="H54" s="280"/>
+      <c r="I54" s="280"/>
+      <c r="J54" s="280"/>
+      <c r="K54" s="280"/>
+      <c r="L54" s="282"/>
     </row>
     <row r="55" spans="1:12" ht="28.8">
-      <c r="A55" s="231" t="s">
+      <c r="A55" s="240" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="324" t="s">
+      <c r="B55" s="311" t="s">
         <v>150</v>
       </c>
       <c r="C55" s="40">
@@ -12333,28 +12333,28 @@
       <c r="L55" s="77"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="231"/>
-      <c r="B56" s="325"/>
-      <c r="C56" s="274" t="s">
+      <c r="A56" s="240"/>
+      <c r="B56" s="322"/>
+      <c r="C56" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="275"/>
-      <c r="E56" s="276"/>
+      <c r="D56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="274" t="s">
+      <c r="G56" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="H56" s="275"/>
-      <c r="I56" s="275"/>
-      <c r="J56" s="275"/>
-      <c r="K56" s="275"/>
-      <c r="L56" s="277"/>
+      <c r="H56" s="280"/>
+      <c r="I56" s="280"/>
+      <c r="J56" s="280"/>
+      <c r="K56" s="280"/>
+      <c r="L56" s="282"/>
     </row>
     <row r="57" spans="1:12" ht="28.8">
-      <c r="A57" s="279" t="s">
+      <c r="A57" s="265" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="324" t="s">
+      <c r="B57" s="311" t="s">
         <v>175</v>
       </c>
       <c r="C57" s="40">
@@ -12375,8 +12375,8 @@
       <c r="L57" s="77"/>
     </row>
     <row r="58" spans="1:12" ht="43.2">
-      <c r="A58" s="284"/>
-      <c r="B58" s="332"/>
+      <c r="A58" s="266"/>
+      <c r="B58" s="312"/>
       <c r="C58" s="40">
         <v>10.3</v>
       </c>
@@ -12395,8 +12395,8 @@
       <c r="L58" s="77"/>
     </row>
     <row r="59" spans="1:12" ht="43.2">
-      <c r="A59" s="284"/>
-      <c r="B59" s="332"/>
+      <c r="A59" s="266"/>
+      <c r="B59" s="312"/>
       <c r="C59" s="40">
         <v>10.4</v>
       </c>
@@ -12415,79 +12415,79 @@
       <c r="L59" s="77"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="280"/>
-      <c r="B60" s="274" t="s">
+      <c r="A60" s="267"/>
+      <c r="B60" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="275"/>
-      <c r="D60" s="275"/>
-      <c r="E60" s="276"/>
+      <c r="C60" s="280"/>
+      <c r="D60" s="280"/>
+      <c r="E60" s="281"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="274" t="s">
+      <c r="G60" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="H60" s="275"/>
-      <c r="I60" s="275"/>
-      <c r="J60" s="275"/>
-      <c r="K60" s="275"/>
-      <c r="L60" s="277"/>
+      <c r="H60" s="280"/>
+      <c r="I60" s="280"/>
+      <c r="J60" s="280"/>
+      <c r="K60" s="280"/>
+      <c r="L60" s="282"/>
     </row>
     <row r="61" spans="1:12" s="41" customFormat="1">
-      <c r="A61" s="278" t="s">
+      <c r="A61" s="283" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="275"/>
-      <c r="C61" s="275"/>
-      <c r="D61" s="275"/>
-      <c r="E61" s="276"/>
+      <c r="B61" s="280"/>
+      <c r="C61" s="280"/>
+      <c r="D61" s="280"/>
+      <c r="E61" s="281"/>
       <c r="F61" s="62"/>
-      <c r="G61" s="274" t="s">
+      <c r="G61" s="279" t="s">
         <v>139</v>
       </c>
-      <c r="H61" s="275"/>
-      <c r="I61" s="275"/>
-      <c r="J61" s="275"/>
-      <c r="K61" s="275"/>
-      <c r="L61" s="277"/>
+      <c r="H61" s="280"/>
+      <c r="I61" s="280"/>
+      <c r="J61" s="280"/>
+      <c r="K61" s="280"/>
+      <c r="L61" s="282"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="339" t="s">
+      <c r="A62" s="308" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="340"/>
-      <c r="C62" s="340"/>
+      <c r="B62" s="309"/>
+      <c r="C62" s="309"/>
       <c r="D62" s="53"/>
-      <c r="E62" s="341" t="s">
+      <c r="E62" s="315" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="342"/>
-      <c r="G62" s="343"/>
+      <c r="F62" s="316"/>
+      <c r="G62" s="317"/>
       <c r="H62" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="I62" s="287" t="s">
+      <c r="I62" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="J62" s="288"/>
-      <c r="K62" s="288"/>
-      <c r="L62" s="336"/>
+      <c r="J62" s="271"/>
+      <c r="K62" s="271"/>
+      <c r="L62" s="323"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="339" t="s">
+      <c r="A63" s="308" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="340"/>
-      <c r="C63" s="340"/>
-      <c r="D63" s="340"/>
-      <c r="E63" s="345"/>
-      <c r="F63" s="337" t="s">
+      <c r="B63" s="309"/>
+      <c r="C63" s="309"/>
+      <c r="D63" s="309"/>
+      <c r="E63" s="310"/>
+      <c r="F63" s="313" t="s">
         <v>179</v>
       </c>
-      <c r="G63" s="338"/>
-      <c r="H63" s="337" t="s">
+      <c r="G63" s="314"/>
+      <c r="H63" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="344"/>
+      <c r="I63" s="318"/>
       <c r="J63" s="64" t="s">
         <v>42</v>
       </c>
@@ -12495,40 +12495,51 @@
       <c r="L63" s="79"/>
     </row>
     <row r="64" spans="1:12" ht="48" customHeight="1" thickBot="1">
-      <c r="A64" s="333" t="s">
+      <c r="A64" s="319" t="s">
         <v>181</v>
       </c>
-      <c r="B64" s="334"/>
-      <c r="C64" s="334"/>
-      <c r="D64" s="334"/>
-      <c r="E64" s="334"/>
-      <c r="F64" s="334"/>
-      <c r="G64" s="334"/>
-      <c r="H64" s="334"/>
-      <c r="I64" s="334"/>
-      <c r="J64" s="334"/>
-      <c r="K64" s="334"/>
-      <c r="L64" s="335"/>
+      <c r="B64" s="320"/>
+      <c r="C64" s="320"/>
+      <c r="D64" s="320"/>
+      <c r="E64" s="320"/>
+      <c r="F64" s="320"/>
+      <c r="G64" s="320"/>
+      <c r="H64" s="320"/>
+      <c r="I64" s="320"/>
+      <c r="J64" s="320"/>
+      <c r="K64" s="320"/>
+      <c r="L64" s="321"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A6:B11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:L26"/>
     <mergeCell ref="A64:L64"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="A27:A30"/>
@@ -12545,34 +12556,23 @@
     <mergeCell ref="G56:L56"/>
     <mergeCell ref="G49:L49"/>
     <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A6:B11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G37:L37"/>
-    <mergeCell ref="B12:B22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B45:E45"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.90486111111111112" right="0.51180555555555551" top="0.74791666666666667" bottom="0.55069444444444449" header="0" footer="0"/>
@@ -12601,81 +12601,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="177" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="354" t="s">
         <v>680</v>
       </c>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
-      <c r="G1" s="348"/>
-      <c r="H1" s="348"/>
-      <c r="I1" s="348"/>
-      <c r="J1" s="348"/>
-      <c r="K1" s="348"/>
+      <c r="B1" s="354"/>
+      <c r="C1" s="354"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
     </row>
     <row r="2" spans="1:11" s="177" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="352" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346" t="s">
+      <c r="B2" s="352"/>
+      <c r="C2" s="352"/>
+      <c r="D2" s="352"/>
+      <c r="E2" s="352"/>
+      <c r="F2" s="352"/>
+      <c r="G2" s="352" t="s">
         <v>605</v>
       </c>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="349"/>
-      <c r="K2" s="349"/>
+      <c r="H2" s="352"/>
+      <c r="I2" s="352"/>
+      <c r="J2" s="355"/>
+      <c r="K2" s="355"/>
     </row>
     <row r="3" spans="1:11" s="177" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="346" t="s">
+      <c r="A3" s="352" t="s">
         <v>604</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346" t="s">
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="352" t="s">
         <v>372</v>
       </c>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="347"/>
-      <c r="K3" s="346"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="352"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="352"/>
     </row>
     <row r="4" spans="1:11" s="175" customFormat="1" ht="31.2">
-      <c r="A4" s="351" t="s">
+      <c r="A4" s="347" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="351" t="s">
+      <c r="B4" s="347" t="s">
         <v>603</v>
       </c>
-      <c r="C4" s="351"/>
-      <c r="D4" s="352" t="s">
+      <c r="C4" s="347"/>
+      <c r="D4" s="348" t="s">
         <v>602</v>
       </c>
-      <c r="E4" s="352"/>
-      <c r="F4" s="352"/>
-      <c r="G4" s="352"/>
+      <c r="E4" s="348"/>
+      <c r="F4" s="348"/>
+      <c r="G4" s="348"/>
       <c r="H4" s="176" t="s">
         <v>601</v>
       </c>
-      <c r="I4" s="351" t="s">
+      <c r="I4" s="347" t="s">
         <v>600</v>
       </c>
-      <c r="J4" s="351"/>
-      <c r="K4" s="351"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="347"/>
     </row>
     <row r="5" spans="1:11" s="173" customFormat="1">
-      <c r="A5" s="351"/>
-      <c r="B5" s="351"/>
-      <c r="C5" s="351"/>
+      <c r="A5" s="347"/>
+      <c r="B5" s="347"/>
+      <c r="C5" s="347"/>
       <c r="D5" s="174" t="s">
         <v>599</v>
       </c>
@@ -12691,97 +12691,106 @@
       <c r="H5" s="174" t="s">
         <v>595</v>
       </c>
-      <c r="I5" s="351"/>
-      <c r="J5" s="351"/>
-      <c r="K5" s="351"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="347"/>
+      <c r="K5" s="347"/>
     </row>
     <row r="6" spans="1:11" ht="45.75" customHeight="1">
       <c r="A6" s="172">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="354" t="s">
+      <c r="B6" s="350" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="354"/>
+      <c r="C6" s="350"/>
       <c r="D6" s="170"/>
       <c r="E6" s="170"/>
       <c r="F6" s="170"/>
       <c r="G6" s="170"/>
       <c r="H6" s="170"/>
-      <c r="I6" s="353"/>
-      <c r="J6" s="353"/>
-      <c r="K6" s="353"/>
+      <c r="I6" s="349"/>
+      <c r="J6" s="349"/>
+      <c r="K6" s="349"/>
     </row>
     <row r="7" spans="1:11" ht="45.75" customHeight="1">
       <c r="A7" s="172">
         <v>1.2</v>
       </c>
-      <c r="B7" s="354" t="s">
+      <c r="B7" s="350" t="s">
         <v>593</v>
       </c>
-      <c r="C7" s="354"/>
+      <c r="C7" s="350"/>
       <c r="D7" s="170"/>
       <c r="E7" s="170"/>
       <c r="F7" s="170"/>
       <c r="G7" s="170"/>
       <c r="H7" s="170"/>
-      <c r="I7" s="353"/>
-      <c r="J7" s="353"/>
-      <c r="K7" s="353"/>
+      <c r="I7" s="349"/>
+      <c r="J7" s="349"/>
+      <c r="K7" s="349"/>
     </row>
     <row r="8" spans="1:11" ht="45.75" customHeight="1">
       <c r="A8" s="171"/>
-      <c r="B8" s="355" t="s">
+      <c r="B8" s="351" t="s">
         <v>592</v>
       </c>
-      <c r="C8" s="355"/>
+      <c r="C8" s="351"/>
       <c r="D8" s="170"/>
       <c r="E8" s="170"/>
       <c r="F8" s="170"/>
       <c r="G8" s="170"/>
       <c r="H8" s="170"/>
-      <c r="I8" s="353"/>
-      <c r="J8" s="353"/>
-      <c r="K8" s="353"/>
+      <c r="I8" s="349"/>
+      <c r="J8" s="349"/>
+      <c r="K8" s="349"/>
     </row>
     <row r="9" spans="1:11" s="169" customFormat="1" ht="42" customHeight="1">
-      <c r="A9" s="350" t="s">
+      <c r="A9" s="346" t="s">
         <v>591</v>
       </c>
-      <c r="B9" s="350"/>
-      <c r="C9" s="350"/>
-      <c r="D9" s="350"/>
-      <c r="E9" s="350" t="s">
+      <c r="B9" s="346"/>
+      <c r="C9" s="346"/>
+      <c r="D9" s="346"/>
+      <c r="E9" s="346" t="s">
         <v>590</v>
       </c>
-      <c r="F9" s="350"/>
-      <c r="G9" s="350" t="s">
+      <c r="F9" s="346"/>
+      <c r="G9" s="346" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="350"/>
-      <c r="I9" s="350"/>
-      <c r="J9" s="350" t="s">
+      <c r="H9" s="346"/>
+      <c r="I9" s="346"/>
+      <c r="J9" s="346" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="350"/>
+      <c r="K9" s="346"/>
     </row>
     <row r="10" spans="1:11" s="169" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A10" s="350" t="s">
+      <c r="A10" s="346" t="s">
         <v>589</v>
       </c>
-      <c r="B10" s="350"/>
-      <c r="C10" s="350"/>
-      <c r="D10" s="350"/>
-      <c r="E10" s="350"/>
-      <c r="F10" s="350"/>
-      <c r="G10" s="350"/>
-      <c r="H10" s="350"/>
-      <c r="I10" s="350"/>
-      <c r="J10" s="350"/>
-      <c r="K10" s="350"/>
+      <c r="B10" s="346"/>
+      <c r="C10" s="346"/>
+      <c r="D10" s="346"/>
+      <c r="E10" s="346"/>
+      <c r="F10" s="346"/>
+      <c r="G10" s="346"/>
+      <c r="H10" s="346"/>
+      <c r="I10" s="346"/>
+      <c r="J10" s="346"/>
+      <c r="K10" s="346"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="I4:K5"/>
     <mergeCell ref="D4:G4"/>
@@ -12797,15 +12806,6 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="53" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12821,8 +12821,8 @@
   </sheetPr>
   <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A119" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -12891,7 +12891,7 @@
       <c r="K3" s="363"/>
     </row>
     <row r="4" spans="1:11" s="155" customFormat="1" ht="25.05" customHeight="1">
-      <c r="A4" s="365" t="s">
+      <c r="A4" s="359" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="356" t="s">
@@ -12903,17 +12903,17 @@
       <c r="D4" s="356" t="s">
         <v>369</v>
       </c>
-      <c r="E4" s="365" t="s">
+      <c r="E4" s="359" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="356" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="364" t="s">
+      <c r="G4" s="358" t="s">
         <v>370</v>
       </c>
-      <c r="H4" s="364"/>
-      <c r="I4" s="364"/>
+      <c r="H4" s="358"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="191" t="s">
         <v>371</v>
       </c>
@@ -12922,11 +12922,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="156" customFormat="1" ht="24">
-      <c r="A5" s="365"/>
+      <c r="A5" s="359"/>
       <c r="B5" s="356"/>
       <c r="C5" s="356"/>
       <c r="D5" s="356"/>
-      <c r="E5" s="365"/>
+      <c r="E5" s="359"/>
       <c r="F5" s="356"/>
       <c r="G5" s="190" t="s">
         <v>14</v>
@@ -13282,7 +13282,7 @@
       <c r="K22" s="356"/>
     </row>
     <row r="23" spans="1:11" s="135" customFormat="1">
-      <c r="A23" s="358" t="s">
+      <c r="A23" s="365" t="s">
         <v>479</v>
       </c>
       <c r="B23" s="179">
@@ -13301,7 +13301,7 @@
       <c r="K23" s="181"/>
     </row>
     <row r="24" spans="1:11" s="135" customFormat="1">
-      <c r="A24" s="358"/>
+      <c r="A24" s="365"/>
       <c r="B24" s="165" t="s">
         <v>480</v>
       </c>
@@ -13322,7 +13322,7 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" s="135" customFormat="1">
-      <c r="A25" s="358"/>
+      <c r="A25" s="365"/>
       <c r="B25" s="165" t="s">
         <v>530</v>
       </c>
@@ -13343,7 +13343,7 @@
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" s="135" customFormat="1">
-      <c r="A26" s="358"/>
+      <c r="A26" s="365"/>
       <c r="B26" s="165" t="s">
         <v>533</v>
       </c>
@@ -13364,7 +13364,7 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" s="135" customFormat="1">
-      <c r="A27" s="358"/>
+      <c r="A27" s="365"/>
       <c r="B27" s="179">
         <v>3.2</v>
       </c>
@@ -13381,7 +13381,7 @@
       <c r="K27" s="181"/>
     </row>
     <row r="28" spans="1:11" s="135" customFormat="1">
-      <c r="A28" s="358"/>
+      <c r="A28" s="365"/>
       <c r="B28" s="186" t="s">
         <v>481</v>
       </c>
@@ -13402,7 +13402,7 @@
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A29" s="358"/>
+      <c r="A29" s="365"/>
       <c r="B29" s="186" t="s">
         <v>482</v>
       </c>
@@ -13423,7 +13423,7 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" s="135" customFormat="1" ht="36">
-      <c r="A30" s="358"/>
+      <c r="A30" s="365"/>
       <c r="B30" s="186" t="s">
         <v>483</v>
       </c>
@@ -13444,7 +13444,7 @@
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" s="135" customFormat="1" ht="36">
-      <c r="A31" s="358"/>
+      <c r="A31" s="365"/>
       <c r="B31" s="186" t="s">
         <v>484</v>
       </c>
@@ -13465,7 +13465,7 @@
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11" s="135" customFormat="1">
-      <c r="A32" s="358"/>
+      <c r="A32" s="365"/>
       <c r="B32" s="186" t="s">
         <v>485</v>
       </c>
@@ -13486,7 +13486,7 @@
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A33" s="358"/>
+      <c r="A33" s="365"/>
       <c r="B33" s="186" t="s">
         <v>486</v>
       </c>
@@ -13507,7 +13507,7 @@
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A34" s="358"/>
+      <c r="A34" s="365"/>
       <c r="B34" s="186" t="s">
         <v>487</v>
       </c>
@@ -13528,7 +13528,7 @@
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" s="135" customFormat="1">
-      <c r="A35" s="358"/>
+      <c r="A35" s="365"/>
       <c r="B35" s="186" t="s">
         <v>488</v>
       </c>
@@ -13549,7 +13549,7 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" s="135" customFormat="1">
-      <c r="A36" s="358"/>
+      <c r="A36" s="365"/>
       <c r="B36" s="186" t="s">
         <v>489</v>
       </c>
@@ -13570,7 +13570,7 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A37" s="358"/>
+      <c r="A37" s="365"/>
       <c r="B37" s="186" t="s">
         <v>490</v>
       </c>
@@ -13591,7 +13591,7 @@
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A38" s="358"/>
+      <c r="A38" s="365"/>
       <c r="B38" s="186" t="s">
         <v>542</v>
       </c>
@@ -13612,7 +13612,7 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" s="135" customFormat="1" ht="48">
-      <c r="A39" s="358"/>
+      <c r="A39" s="365"/>
       <c r="B39" s="186" t="s">
         <v>543</v>
       </c>
@@ -13633,7 +13633,7 @@
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A40" s="358"/>
+      <c r="A40" s="365"/>
       <c r="B40" s="186" t="s">
         <v>544</v>
       </c>
@@ -13654,7 +13654,7 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A41" s="358"/>
+      <c r="A41" s="365"/>
       <c r="B41" s="186" t="s">
         <v>545</v>
       </c>
@@ -13675,7 +13675,7 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" s="135" customFormat="1" ht="36">
-      <c r="A42" s="358"/>
+      <c r="A42" s="365"/>
       <c r="B42" s="186" t="s">
         <v>546</v>
       </c>
@@ -13696,7 +13696,7 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A43" s="358"/>
+      <c r="A43" s="365"/>
       <c r="B43" s="186" t="s">
         <v>547</v>
       </c>
@@ -13717,7 +13717,7 @@
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11" s="135" customFormat="1" ht="36">
-      <c r="A44" s="358"/>
+      <c r="A44" s="365"/>
       <c r="B44" s="186" t="s">
         <v>548</v>
       </c>
@@ -13738,7 +13738,7 @@
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11" s="135" customFormat="1">
-      <c r="A45" s="358"/>
+      <c r="A45" s="365"/>
       <c r="B45" s="186" t="s">
         <v>549</v>
       </c>
@@ -13759,7 +13759,7 @@
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A46" s="358"/>
+      <c r="A46" s="365"/>
       <c r="B46" s="165" t="s">
         <v>550</v>
       </c>
@@ -13780,7 +13780,7 @@
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A47" s="358"/>
+      <c r="A47" s="365"/>
       <c r="B47" s="165" t="s">
         <v>551</v>
       </c>
@@ -13801,7 +13801,7 @@
       <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A48" s="358"/>
+      <c r="A48" s="365"/>
       <c r="B48" s="165" t="s">
         <v>552</v>
       </c>
@@ -13822,7 +13822,7 @@
       <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:11" s="135" customFormat="1">
-      <c r="A49" s="358"/>
+      <c r="A49" s="365"/>
       <c r="B49" s="165" t="s">
         <v>553</v>
       </c>
@@ -13843,7 +13843,7 @@
       <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11" s="135" customFormat="1">
-      <c r="A50" s="358"/>
+      <c r="A50" s="365"/>
       <c r="B50" s="167" t="s">
         <v>554</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A51" s="358"/>
+      <c r="A51" s="365"/>
       <c r="B51" s="186" t="s">
         <v>555</v>
       </c>
@@ -13885,7 +13885,7 @@
       <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11" s="135" customFormat="1" ht="36">
-      <c r="A52" s="358"/>
+      <c r="A52" s="365"/>
       <c r="B52" s="186" t="s">
         <v>556</v>
       </c>
@@ -13906,7 +13906,7 @@
       <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11" s="135" customFormat="1" ht="36">
-      <c r="A53" s="358"/>
+      <c r="A53" s="365"/>
       <c r="B53" s="186" t="s">
         <v>557</v>
       </c>
@@ -13927,7 +13927,7 @@
       <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11" s="135" customFormat="1">
-      <c r="A54" s="358"/>
+      <c r="A54" s="365"/>
       <c r="B54" s="186" t="s">
         <v>558</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11" s="135" customFormat="1" ht="60">
-      <c r="A55" s="358"/>
+      <c r="A55" s="365"/>
       <c r="B55" s="186" t="s">
         <v>640</v>
       </c>
@@ -13969,7 +13969,7 @@
       <c r="K55" s="12"/>
     </row>
     <row r="56" spans="1:11" s="142" customFormat="1">
-      <c r="A56" s="358"/>
+      <c r="A56" s="365"/>
       <c r="B56" s="179">
         <v>3.3</v>
       </c>
@@ -13986,7 +13986,7 @@
       <c r="K56" s="180"/>
     </row>
     <row r="57" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A57" s="358"/>
+      <c r="A57" s="365"/>
       <c r="B57" s="186" t="s">
         <v>481</v>
       </c>
@@ -14007,7 +14007,7 @@
       <c r="K57" s="182"/>
     </row>
     <row r="58" spans="1:11" s="142" customFormat="1">
-      <c r="A58" s="358"/>
+      <c r="A58" s="365"/>
       <c r="B58" s="165" t="s">
         <v>491</v>
       </c>
@@ -14028,7 +14028,7 @@
       <c r="K58" s="182"/>
     </row>
     <row r="59" spans="1:11" s="142" customFormat="1">
-      <c r="A59" s="358"/>
+      <c r="A59" s="365"/>
       <c r="B59" s="166" t="s">
         <v>492</v>
       </c>
@@ -14049,7 +14049,7 @@
       <c r="K59" s="182"/>
     </row>
     <row r="60" spans="1:11" s="142" customFormat="1">
-      <c r="A60" s="358"/>
+      <c r="A60" s="365"/>
       <c r="B60" s="166" t="s">
         <v>493</v>
       </c>
@@ -14070,7 +14070,7 @@
       <c r="K60" s="182"/>
     </row>
     <row r="61" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A61" s="358"/>
+      <c r="A61" s="365"/>
       <c r="B61" s="167" t="s">
         <v>494</v>
       </c>
@@ -14093,7 +14093,7 @@
       <c r="K61" s="183"/>
     </row>
     <row r="62" spans="1:11" s="142" customFormat="1">
-      <c r="A62" s="358"/>
+      <c r="A62" s="365"/>
       <c r="B62" s="186" t="s">
         <v>495</v>
       </c>
@@ -14114,7 +14114,7 @@
       <c r="K62" s="182"/>
     </row>
     <row r="63" spans="1:11" s="142" customFormat="1" ht="36">
-      <c r="A63" s="358"/>
+      <c r="A63" s="365"/>
       <c r="B63" s="167" t="s">
         <v>496</v>
       </c>
@@ -14135,7 +14135,7 @@
       <c r="K63" s="182"/>
     </row>
     <row r="64" spans="1:11" s="135" customFormat="1">
-      <c r="A64" s="358"/>
+      <c r="A64" s="365"/>
       <c r="B64" s="186" t="s">
         <v>606</v>
       </c>
@@ -14158,7 +14158,7 @@
       <c r="K64" s="183"/>
     </row>
     <row r="65" spans="1:11" s="135" customFormat="1">
-      <c r="A65" s="358"/>
+      <c r="A65" s="365"/>
       <c r="B65" s="179">
         <v>3.4</v>
       </c>
@@ -14175,7 +14175,7 @@
       <c r="K65" s="180"/>
     </row>
     <row r="66" spans="1:11" s="135" customFormat="1">
-      <c r="A66" s="358"/>
+      <c r="A66" s="365"/>
       <c r="B66" s="165" t="s">
         <v>572</v>
       </c>
@@ -14196,7 +14196,7 @@
       <c r="K66" s="182"/>
     </row>
     <row r="67" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A67" s="358"/>
+      <c r="A67" s="365"/>
       <c r="B67" s="165" t="s">
         <v>573</v>
       </c>
@@ -14217,7 +14217,7 @@
       <c r="K67" s="182"/>
     </row>
     <row r="68" spans="1:11" s="135" customFormat="1" ht="24">
-      <c r="A68" s="358"/>
+      <c r="A68" s="365"/>
       <c r="B68" s="165" t="s">
         <v>574</v>
       </c>
@@ -14238,7 +14238,7 @@
       <c r="K68" s="182"/>
     </row>
     <row r="69" spans="1:11" s="142" customFormat="1">
-      <c r="A69" s="358"/>
+      <c r="A69" s="365"/>
       <c r="B69" s="187">
         <v>3.5</v>
       </c>
@@ -14255,7 +14255,7 @@
       <c r="K69" s="180"/>
     </row>
     <row r="70" spans="1:11" s="142" customFormat="1">
-      <c r="A70" s="358"/>
+      <c r="A70" s="365"/>
       <c r="B70" s="165" t="s">
         <v>575</v>
       </c>
@@ -14276,7 +14276,7 @@
       <c r="K70" s="182"/>
     </row>
     <row r="71" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A71" s="358"/>
+      <c r="A71" s="365"/>
       <c r="B71" s="165" t="s">
         <v>576</v>
       </c>
@@ -14297,7 +14297,7 @@
       <c r="K71" s="182"/>
     </row>
     <row r="72" spans="1:11" s="142" customFormat="1">
-      <c r="A72" s="358"/>
+      <c r="A72" s="365"/>
       <c r="B72" s="165" t="s">
         <v>577</v>
       </c>
@@ -14318,7 +14318,7 @@
       <c r="K72" s="182"/>
     </row>
     <row r="73" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A73" s="358"/>
+      <c r="A73" s="365"/>
       <c r="B73" s="165" t="s">
         <v>578</v>
       </c>
@@ -14339,7 +14339,7 @@
       <c r="K73" s="182"/>
     </row>
     <row r="74" spans="1:11" s="135" customFormat="1">
-      <c r="A74" s="358"/>
+      <c r="A74" s="365"/>
       <c r="B74" s="165" t="s">
         <v>579</v>
       </c>
@@ -14362,7 +14362,7 @@
       <c r="K74" s="183"/>
     </row>
     <row r="75" spans="1:11" s="142" customFormat="1">
-      <c r="A75" s="358"/>
+      <c r="A75" s="365"/>
       <c r="B75" s="179">
         <v>3.6</v>
       </c>
@@ -14379,7 +14379,7 @@
       <c r="K75" s="180"/>
     </row>
     <row r="76" spans="1:11" s="142" customFormat="1">
-      <c r="A76" s="358"/>
+      <c r="A76" s="365"/>
       <c r="B76" s="165" t="s">
         <v>580</v>
       </c>
@@ -14400,7 +14400,7 @@
       <c r="K76" s="182"/>
     </row>
     <row r="77" spans="1:11" s="142" customFormat="1">
-      <c r="A77" s="358"/>
+      <c r="A77" s="365"/>
       <c r="B77" s="165" t="s">
         <v>609</v>
       </c>
@@ -14421,7 +14421,7 @@
       <c r="K77" s="182"/>
     </row>
     <row r="78" spans="1:11" s="142" customFormat="1" ht="48">
-      <c r="A78" s="358"/>
+      <c r="A78" s="365"/>
       <c r="B78" s="168" t="s">
         <v>610</v>
       </c>
@@ -14442,7 +14442,7 @@
       <c r="K78" s="182"/>
     </row>
     <row r="79" spans="1:11" s="142" customFormat="1">
-      <c r="A79" s="358"/>
+      <c r="A79" s="365"/>
       <c r="B79" s="168" t="s">
         <v>641</v>
       </c>
@@ -14463,7 +14463,7 @@
       <c r="K79" s="182"/>
     </row>
     <row r="80" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A80" s="358"/>
+      <c r="A80" s="365"/>
       <c r="B80" s="168" t="s">
         <v>642</v>
       </c>
@@ -14484,7 +14484,7 @@
       <c r="K80" s="182"/>
     </row>
     <row r="81" spans="1:11" s="142" customFormat="1" ht="36">
-      <c r="A81" s="358"/>
+      <c r="A81" s="365"/>
       <c r="B81" s="168" t="s">
         <v>643</v>
       </c>
@@ -14505,7 +14505,7 @@
       <c r="K81" s="182"/>
     </row>
     <row r="82" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A82" s="358"/>
+      <c r="A82" s="365"/>
       <c r="B82" s="168" t="s">
         <v>644</v>
       </c>
@@ -14526,7 +14526,7 @@
       <c r="K82" s="182"/>
     </row>
     <row r="83" spans="1:11" s="142" customFormat="1">
-      <c r="A83" s="358"/>
+      <c r="A83" s="365"/>
       <c r="B83" s="168" t="s">
         <v>645</v>
       </c>
@@ -14547,7 +14547,7 @@
       <c r="K83" s="182"/>
     </row>
     <row r="84" spans="1:11" s="142" customFormat="1">
-      <c r="A84" s="358"/>
+      <c r="A84" s="365"/>
       <c r="B84" s="187">
         <v>3.7</v>
       </c>
@@ -14564,7 +14564,7 @@
       <c r="K84" s="180"/>
     </row>
     <row r="85" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A85" s="358"/>
+      <c r="A85" s="365"/>
       <c r="B85" s="165" t="s">
         <v>497</v>
       </c>
@@ -14585,7 +14585,7 @@
       <c r="K85" s="182"/>
     </row>
     <row r="86" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A86" s="358"/>
+      <c r="A86" s="365"/>
       <c r="B86" s="165" t="s">
         <v>498</v>
       </c>
@@ -14606,7 +14606,7 @@
       <c r="K86" s="182"/>
     </row>
     <row r="87" spans="1:11" s="142" customFormat="1">
-      <c r="A87" s="358"/>
+      <c r="A87" s="365"/>
       <c r="B87" s="165" t="s">
         <v>499</v>
       </c>
@@ -14627,7 +14627,7 @@
       <c r="K87" s="182"/>
     </row>
     <row r="88" spans="1:11" s="142" customFormat="1">
-      <c r="A88" s="358"/>
+      <c r="A88" s="365"/>
       <c r="B88" s="165" t="s">
         <v>500</v>
       </c>
@@ -14648,7 +14648,7 @@
       <c r="K88" s="182"/>
     </row>
     <row r="89" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A89" s="358"/>
+      <c r="A89" s="365"/>
       <c r="B89" s="165" t="s">
         <v>501</v>
       </c>
@@ -14669,7 +14669,7 @@
       <c r="K89" s="182"/>
     </row>
     <row r="90" spans="1:11" s="142" customFormat="1">
-      <c r="A90" s="358"/>
+      <c r="A90" s="365"/>
       <c r="B90" s="165" t="s">
         <v>540</v>
       </c>
@@ -14690,7 +14690,7 @@
       <c r="K90" s="182"/>
     </row>
     <row r="91" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A91" s="358"/>
+      <c r="A91" s="365"/>
       <c r="B91" s="165" t="s">
         <v>541</v>
       </c>
@@ -14711,7 +14711,7 @@
       <c r="K91" s="182"/>
     </row>
     <row r="92" spans="1:11" s="142" customFormat="1">
-      <c r="A92" s="358"/>
+      <c r="A92" s="365"/>
       <c r="B92" s="187">
         <v>3.8</v>
       </c>
@@ -14728,7 +14728,7 @@
       <c r="K92" s="180"/>
     </row>
     <row r="93" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A93" s="358"/>
+      <c r="A93" s="365"/>
       <c r="B93" s="165" t="s">
         <v>502</v>
       </c>
@@ -14749,7 +14749,7 @@
       <c r="K93" s="182"/>
     </row>
     <row r="94" spans="1:11" s="142" customFormat="1" ht="36">
-      <c r="A94" s="358"/>
+      <c r="A94" s="365"/>
       <c r="B94" s="165" t="s">
         <v>646</v>
       </c>
@@ -14770,7 +14770,7 @@
       <c r="K94" s="182"/>
     </row>
     <row r="95" spans="1:11" s="142" customFormat="1" ht="36">
-      <c r="A95" s="358"/>
+      <c r="A95" s="365"/>
       <c r="B95" s="165" t="s">
         <v>647</v>
       </c>
@@ -14791,7 +14791,7 @@
       <c r="K95" s="182"/>
     </row>
     <row r="96" spans="1:11" s="142" customFormat="1" ht="43.2">
-      <c r="A96" s="358"/>
+      <c r="A96" s="365"/>
       <c r="B96" s="165" t="s">
         <v>648</v>
       </c>
@@ -14812,7 +14812,7 @@
       <c r="K96" s="182"/>
     </row>
     <row r="97" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A97" s="358"/>
+      <c r="A97" s="365"/>
       <c r="B97" s="165" t="s">
         <v>649</v>
       </c>
@@ -14833,7 +14833,7 @@
       <c r="K97" s="182"/>
     </row>
     <row r="98" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A98" s="358"/>
+      <c r="A98" s="365"/>
       <c r="B98" s="165" t="s">
         <v>650</v>
       </c>
@@ -14854,7 +14854,7 @@
       <c r="K98" s="182"/>
     </row>
     <row r="99" spans="1:11" s="142" customFormat="1">
-      <c r="A99" s="358"/>
+      <c r="A99" s="365"/>
       <c r="B99" s="165" t="s">
         <v>651</v>
       </c>
@@ -14875,7 +14875,7 @@
       <c r="K99" s="182"/>
     </row>
     <row r="100" spans="1:11" s="142" customFormat="1" ht="36">
-      <c r="A100" s="358"/>
+      <c r="A100" s="365"/>
       <c r="B100" s="165" t="s">
         <v>652</v>
       </c>
@@ -14896,7 +14896,7 @@
       <c r="K100" s="182"/>
     </row>
     <row r="101" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A101" s="358"/>
+      <c r="A101" s="365"/>
       <c r="B101" s="165" t="s">
         <v>653</v>
       </c>
@@ -14917,7 +14917,7 @@
       <c r="K101" s="182"/>
     </row>
     <row r="102" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A102" s="358"/>
+      <c r="A102" s="365"/>
       <c r="B102" s="165" t="s">
         <v>654</v>
       </c>
@@ -14938,7 +14938,7 @@
       <c r="K102" s="182"/>
     </row>
     <row r="103" spans="1:11" s="142" customFormat="1">
-      <c r="A103" s="358"/>
+      <c r="A103" s="365"/>
       <c r="B103" s="187">
         <v>3.9</v>
       </c>
@@ -14955,7 +14955,7 @@
       <c r="K103" s="180"/>
     </row>
     <row r="104" spans="1:11" s="142" customFormat="1">
-      <c r="A104" s="358"/>
+      <c r="A104" s="365"/>
       <c r="B104" s="165" t="s">
         <v>503</v>
       </c>
@@ -14976,7 +14976,7 @@
       <c r="K104" s="182"/>
     </row>
     <row r="105" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A105" s="358"/>
+      <c r="A105" s="365"/>
       <c r="B105" s="165" t="s">
         <v>504</v>
       </c>
@@ -14997,7 +14997,7 @@
       <c r="K105" s="182"/>
     </row>
     <row r="106" spans="1:11" s="142" customFormat="1">
-      <c r="A106" s="358"/>
+      <c r="A106" s="365"/>
       <c r="B106" s="165" t="s">
         <v>505</v>
       </c>
@@ -15018,7 +15018,7 @@
       <c r="K106" s="182"/>
     </row>
     <row r="107" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A107" s="358"/>
+      <c r="A107" s="365"/>
       <c r="B107" s="165" t="s">
         <v>506</v>
       </c>
@@ -15039,7 +15039,7 @@
       <c r="K107" s="182"/>
     </row>
     <row r="108" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A108" s="358"/>
+      <c r="A108" s="365"/>
       <c r="B108" s="165" t="s">
         <v>507</v>
       </c>
@@ -15060,7 +15060,7 @@
       <c r="K108" s="182"/>
     </row>
     <row r="109" spans="1:11" s="142" customFormat="1">
-      <c r="A109" s="358"/>
+      <c r="A109" s="365"/>
       <c r="B109" s="165" t="s">
         <v>508</v>
       </c>
@@ -15081,7 +15081,7 @@
       <c r="K109" s="182"/>
     </row>
     <row r="110" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A110" s="358"/>
+      <c r="A110" s="365"/>
       <c r="B110" s="165" t="s">
         <v>509</v>
       </c>
@@ -15102,7 +15102,7 @@
       <c r="K110" s="182"/>
     </row>
     <row r="111" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A111" s="358"/>
+      <c r="A111" s="365"/>
       <c r="B111" s="165" t="s">
         <v>535</v>
       </c>
@@ -15123,7 +15123,7 @@
       <c r="K111" s="182"/>
     </row>
     <row r="112" spans="1:11" s="142" customFormat="1" ht="36">
-      <c r="A112" s="358"/>
+      <c r="A112" s="365"/>
       <c r="B112" s="165" t="s">
         <v>536</v>
       </c>
@@ -15144,7 +15144,7 @@
       <c r="K112" s="182"/>
     </row>
     <row r="113" spans="1:11" s="135" customFormat="1">
-      <c r="A113" s="358"/>
+      <c r="A113" s="365"/>
       <c r="B113" s="165" t="s">
         <v>537</v>
       </c>
@@ -15165,7 +15165,7 @@
       <c r="K113" s="12"/>
     </row>
     <row r="114" spans="1:11" s="135" customFormat="1">
-      <c r="A114" s="358"/>
+      <c r="A114" s="365"/>
       <c r="B114" s="165" t="s">
         <v>538</v>
       </c>
@@ -15186,7 +15186,7 @@
       <c r="K114" s="12"/>
     </row>
     <row r="115" spans="1:11" s="142" customFormat="1" ht="24">
-      <c r="A115" s="358"/>
+      <c r="A115" s="365"/>
       <c r="B115" s="186" t="s">
         <v>539</v>
       </c>
@@ -15207,7 +15207,7 @@
       <c r="K115" s="182"/>
     </row>
     <row r="116" spans="1:11" s="142" customFormat="1" ht="28.8">
-      <c r="A116" s="358"/>
+      <c r="A116" s="365"/>
       <c r="B116" s="186" t="s">
         <v>655</v>
       </c>
@@ -15228,7 +15228,7 @@
       <c r="K116" s="182"/>
     </row>
     <row r="117" spans="1:11" s="163" customFormat="1">
-      <c r="A117" s="358"/>
+      <c r="A117" s="365"/>
       <c r="B117" s="356" t="s">
         <v>182</v>
       </c>
@@ -15937,13 +15937,13 @@
       <c r="K151" s="356"/>
     </row>
     <row r="152" spans="1:11" s="164" customFormat="1">
-      <c r="A152" s="359" t="s">
+      <c r="A152" s="364" t="s">
         <v>34</v>
       </c>
-      <c r="B152" s="359"/>
-      <c r="C152" s="359"/>
-      <c r="D152" s="359"/>
-      <c r="E152" s="359"/>
+      <c r="B152" s="364"/>
+      <c r="C152" s="364"/>
+      <c r="D152" s="364"/>
+      <c r="E152" s="364"/>
       <c r="F152" s="356" t="s">
         <v>393</v>
       </c>
@@ -15954,61 +15954,61 @@
       <c r="K152" s="356"/>
     </row>
     <row r="153" spans="1:11" s="164" customFormat="1">
-      <c r="A153" s="350" t="s">
+      <c r="A153" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="B153" s="350"/>
-      <c r="C153" s="359" t="s">
+      <c r="B153" s="346"/>
+      <c r="C153" s="364" t="s">
         <v>465</v>
       </c>
-      <c r="D153" s="359"/>
-      <c r="E153" s="359"/>
-      <c r="F153" s="359"/>
+      <c r="D153" s="364"/>
+      <c r="E153" s="364"/>
+      <c r="F153" s="364"/>
       <c r="G153" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="H153" s="359" t="s">
+      <c r="H153" s="364" t="s">
         <v>38</v>
       </c>
-      <c r="I153" s="359"/>
-      <c r="J153" s="359"/>
-      <c r="K153" s="359"/>
+      <c r="I153" s="364"/>
+      <c r="J153" s="364"/>
+      <c r="K153" s="364"/>
     </row>
     <row r="154" spans="1:11" s="164" customFormat="1">
-      <c r="A154" s="350" t="s">
+      <c r="A154" s="346" t="s">
         <v>391</v>
       </c>
-      <c r="B154" s="350"/>
-      <c r="C154" s="350"/>
-      <c r="D154" s="350"/>
-      <c r="E154" s="350" t="s">
+      <c r="B154" s="346"/>
+      <c r="C154" s="346"/>
+      <c r="D154" s="346"/>
+      <c r="E154" s="346" t="s">
         <v>392</v>
       </c>
-      <c r="F154" s="350"/>
-      <c r="G154" s="350" t="s">
+      <c r="F154" s="346"/>
+      <c r="G154" s="346" t="s">
         <v>41</v>
       </c>
-      <c r="H154" s="350"/>
-      <c r="I154" s="350"/>
-      <c r="J154" s="350" t="s">
+      <c r="H154" s="346"/>
+      <c r="I154" s="346"/>
+      <c r="J154" s="346" t="s">
         <v>42</v>
       </c>
-      <c r="K154" s="350"/>
+      <c r="K154" s="346"/>
     </row>
     <row r="155" spans="1:11" s="164" customFormat="1">
-      <c r="A155" s="350" t="s">
+      <c r="A155" s="346" t="s">
         <v>664</v>
       </c>
-      <c r="B155" s="350"/>
-      <c r="C155" s="350"/>
-      <c r="D155" s="350"/>
-      <c r="E155" s="350"/>
-      <c r="F155" s="350"/>
-      <c r="G155" s="350"/>
-      <c r="H155" s="350"/>
-      <c r="I155" s="350"/>
-      <c r="J155" s="350"/>
-      <c r="K155" s="350"/>
+      <c r="B155" s="346"/>
+      <c r="C155" s="346"/>
+      <c r="D155" s="346"/>
+      <c r="E155" s="346"/>
+      <c r="F155" s="346"/>
+      <c r="G155" s="346"/>
+      <c r="H155" s="346"/>
+      <c r="I155" s="346"/>
+      <c r="J155" s="346"/>
+      <c r="K155" s="346"/>
     </row>
     <row r="156" spans="1:11" s="160" customFormat="1">
       <c r="A156" s="159"/>
@@ -16175,6 +16175,42 @@
   </sheetData>
   <autoFilter ref="D4:D155"/>
   <mergeCells count="48">
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="A118:A125"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="F117:K117"/>
+    <mergeCell ref="A23:A117"/>
+    <mergeCell ref="A155:K155"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="F152:K152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F9:K9"/>
     <mergeCell ref="B151:C151"/>
     <mergeCell ref="F151:K151"/>
     <mergeCell ref="A148:A151"/>
@@ -16187,46 +16223,10 @@
     <mergeCell ref="A139:A144"/>
     <mergeCell ref="B138:C138"/>
     <mergeCell ref="F138:K138"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A155:K155"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="F152:K152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="H153:K153"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="A118:A125"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="F117:K117"/>
-    <mergeCell ref="A23:A117"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.55118110236220474" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="96" firstPageNumber="4294963191" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="95" firstPageNumber="4294963191" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -16256,19 +16256,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="153" customFormat="1" ht="23.4">
-      <c r="A1" s="369" t="s">
+      <c r="A1" s="374" t="s">
         <v>682</v>
       </c>
-      <c r="B1" s="369"/>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="369"/>
-      <c r="G1" s="369"/>
-      <c r="H1" s="369"/>
-      <c r="I1" s="369"/>
-      <c r="J1" s="369"/>
-      <c r="K1" s="369"/>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
     </row>
     <row r="2" spans="1:11" s="153" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="361" t="s">
@@ -16305,25 +16305,25 @@
       <c r="K3" s="361"/>
     </row>
     <row r="4" spans="1:11" s="155" customFormat="1" ht="17.399999999999999">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="367" t="s">
         <v>380</v>
       </c>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370" t="s">
+      <c r="B4" s="367"/>
+      <c r="C4" s="367" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370" t="s">
+      <c r="D4" s="367"/>
+      <c r="E4" s="367" t="s">
         <v>381</v>
       </c>
-      <c r="F4" s="370" t="s">
+      <c r="F4" s="367" t="s">
         <v>375</v>
       </c>
-      <c r="G4" s="364" t="s">
+      <c r="G4" s="358" t="s">
         <v>382</v>
       </c>
-      <c r="H4" s="364"/>
-      <c r="I4" s="364"/>
+      <c r="H4" s="358"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="152" t="s">
         <v>383</v>
       </c>
@@ -16332,12 +16332,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="156" customFormat="1" ht="24">
-      <c r="A5" s="370"/>
-      <c r="B5" s="370"/>
-      <c r="C5" s="370"/>
-      <c r="D5" s="370"/>
-      <c r="E5" s="370"/>
-      <c r="F5" s="370"/>
+      <c r="A5" s="367"/>
+      <c r="B5" s="367"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
       <c r="G5" s="150" t="s">
         <v>14</v>
       </c>
@@ -16355,10 +16355,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="158" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A6" s="366"/>
-      <c r="B6" s="366"/>
-      <c r="C6" s="367"/>
-      <c r="D6" s="368"/>
+      <c r="A6" s="370"/>
+      <c r="B6" s="370"/>
+      <c r="C6" s="372"/>
+      <c r="D6" s="373"/>
       <c r="E6" s="144"/>
       <c r="F6" s="144"/>
       <c r="G6" s="147"/>
@@ -16368,10 +16368,10 @@
       <c r="K6" s="145"/>
     </row>
     <row r="7" spans="1:11" s="158" customFormat="1">
-      <c r="A7" s="366">
+      <c r="A7" s="370">
         <v>2</v>
       </c>
-      <c r="B7" s="366"/>
+      <c r="B7" s="370"/>
       <c r="C7" s="371"/>
       <c r="D7" s="371"/>
       <c r="E7" s="144"/>
@@ -16383,10 +16383,10 @@
       <c r="K7" s="145"/>
     </row>
     <row r="8" spans="1:11" s="158" customFormat="1">
-      <c r="A8" s="366">
+      <c r="A8" s="370">
         <v>3</v>
       </c>
-      <c r="B8" s="366"/>
+      <c r="B8" s="370"/>
       <c r="C8" s="371"/>
       <c r="D8" s="371"/>
       <c r="E8" s="144"/>
@@ -16398,10 +16398,10 @@
       <c r="K8" s="145"/>
     </row>
     <row r="9" spans="1:11" s="158" customFormat="1">
-      <c r="A9" s="366">
+      <c r="A9" s="370">
         <v>4</v>
       </c>
-      <c r="B9" s="366"/>
+      <c r="B9" s="370"/>
       <c r="C9" s="371"/>
       <c r="D9" s="371"/>
       <c r="E9" s="144"/>
@@ -16413,10 +16413,10 @@
       <c r="K9" s="145"/>
     </row>
     <row r="10" spans="1:11" s="158" customFormat="1">
-      <c r="A10" s="366">
+      <c r="A10" s="370">
         <v>5</v>
       </c>
-      <c r="B10" s="366"/>
+      <c r="B10" s="370"/>
       <c r="C10" s="371"/>
       <c r="D10" s="371"/>
       <c r="E10" s="144"/>
@@ -16428,10 +16428,10 @@
       <c r="K10" s="145"/>
     </row>
     <row r="11" spans="1:11" s="158" customFormat="1">
-      <c r="A11" s="366">
+      <c r="A11" s="370">
         <v>6</v>
       </c>
-      <c r="B11" s="366"/>
+      <c r="B11" s="370"/>
       <c r="C11" s="371"/>
       <c r="D11" s="371"/>
       <c r="E11" s="144"/>
@@ -16443,10 +16443,10 @@
       <c r="K11" s="145"/>
     </row>
     <row r="12" spans="1:11" s="158" customFormat="1">
-      <c r="A12" s="366">
+      <c r="A12" s="370">
         <v>7</v>
       </c>
-      <c r="B12" s="366"/>
+      <c r="B12" s="370"/>
       <c r="C12" s="371"/>
       <c r="D12" s="371"/>
       <c r="E12" s="144"/>
@@ -16458,10 +16458,10 @@
       <c r="K12" s="145"/>
     </row>
     <row r="13" spans="1:11" s="158" customFormat="1">
-      <c r="A13" s="366">
+      <c r="A13" s="370">
         <v>8</v>
       </c>
-      <c r="B13" s="366"/>
+      <c r="B13" s="370"/>
       <c r="C13" s="371"/>
       <c r="D13" s="371"/>
       <c r="E13" s="144"/>
@@ -16473,10 +16473,10 @@
       <c r="K13" s="145"/>
     </row>
     <row r="14" spans="1:11" s="158" customFormat="1">
-      <c r="A14" s="366">
+      <c r="A14" s="370">
         <v>9</v>
       </c>
-      <c r="B14" s="366"/>
+      <c r="B14" s="370"/>
       <c r="C14" s="371"/>
       <c r="D14" s="371"/>
       <c r="E14" s="144"/>
@@ -16488,10 +16488,10 @@
       <c r="K14" s="145"/>
     </row>
     <row r="15" spans="1:11" s="158" customFormat="1">
-      <c r="A15" s="366">
+      <c r="A15" s="370">
         <v>10</v>
       </c>
-      <c r="B15" s="366"/>
+      <c r="B15" s="370"/>
       <c r="C15" s="371"/>
       <c r="D15" s="371"/>
       <c r="E15" s="144"/>
@@ -16503,10 +16503,10 @@
       <c r="K15" s="145"/>
     </row>
     <row r="16" spans="1:11" s="158" customFormat="1">
-      <c r="A16" s="366">
+      <c r="A16" s="370">
         <v>11</v>
       </c>
-      <c r="B16" s="366"/>
+      <c r="B16" s="370"/>
       <c r="C16" s="371"/>
       <c r="D16" s="371"/>
       <c r="E16" s="144"/>
@@ -16518,10 +16518,10 @@
       <c r="K16" s="145"/>
     </row>
     <row r="17" spans="1:11" s="158" customFormat="1">
-      <c r="A17" s="366">
+      <c r="A17" s="370">
         <v>12</v>
       </c>
-      <c r="B17" s="366"/>
+      <c r="B17" s="370"/>
       <c r="C17" s="371"/>
       <c r="D17" s="371"/>
       <c r="E17" s="144"/>
@@ -16533,10 +16533,10 @@
       <c r="K17" s="145"/>
     </row>
     <row r="18" spans="1:11" s="158" customFormat="1">
-      <c r="A18" s="366">
+      <c r="A18" s="370">
         <v>13</v>
       </c>
-      <c r="B18" s="366"/>
+      <c r="B18" s="370"/>
       <c r="C18" s="371"/>
       <c r="D18" s="371"/>
       <c r="E18" s="144"/>
@@ -16548,152 +16548,152 @@
       <c r="K18" s="145"/>
     </row>
     <row r="19" spans="1:11" s="157" customFormat="1" ht="12">
-      <c r="A19" s="370" t="s">
+      <c r="A19" s="367" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="370"/>
-      <c r="C19" s="370"/>
-      <c r="D19" s="370"/>
-      <c r="E19" s="370"/>
-      <c r="F19" s="370"/>
-      <c r="G19" s="370" t="s">
+      <c r="B19" s="367"/>
+      <c r="C19" s="367"/>
+      <c r="D19" s="367"/>
+      <c r="E19" s="367"/>
+      <c r="F19" s="367"/>
+      <c r="G19" s="367" t="s">
         <v>385</v>
       </c>
-      <c r="H19" s="370"/>
-      <c r="I19" s="370"/>
-      <c r="J19" s="370"/>
-      <c r="K19" s="370"/>
+      <c r="H19" s="367"/>
+      <c r="I19" s="367"/>
+      <c r="J19" s="367"/>
+      <c r="K19" s="367"/>
     </row>
     <row r="20" spans="1:11" s="154" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="373" t="s">
+      <c r="A20" s="368" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="373"/>
-      <c r="C20" s="359" t="s">
+      <c r="B20" s="368"/>
+      <c r="C20" s="364" t="s">
         <v>377</v>
       </c>
-      <c r="D20" s="374"/>
-      <c r="E20" s="374"/>
-      <c r="F20" s="374"/>
+      <c r="D20" s="369"/>
+      <c r="E20" s="369"/>
+      <c r="F20" s="369"/>
       <c r="G20" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="359" t="s">
+      <c r="H20" s="364" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="359"/>
-      <c r="J20" s="359"/>
-      <c r="K20" s="359"/>
+      <c r="I20" s="364"/>
+      <c r="J20" s="364"/>
+      <c r="K20" s="364"/>
     </row>
     <row r="21" spans="1:11" s="154" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="350" t="s">
+      <c r="A21" s="346" t="s">
         <v>386</v>
       </c>
-      <c r="B21" s="373"/>
-      <c r="C21" s="373"/>
-      <c r="D21" s="373"/>
-      <c r="E21" s="350" t="s">
+      <c r="B21" s="368"/>
+      <c r="C21" s="368"/>
+      <c r="D21" s="368"/>
+      <c r="E21" s="346" t="s">
         <v>387</v>
       </c>
-      <c r="F21" s="373"/>
-      <c r="G21" s="350" t="s">
+      <c r="F21" s="368"/>
+      <c r="G21" s="346" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="350"/>
-      <c r="I21" s="350"/>
-      <c r="J21" s="350" t="s">
+      <c r="H21" s="346"/>
+      <c r="I21" s="346"/>
+      <c r="J21" s="346" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="350"/>
+      <c r="K21" s="346"/>
     </row>
     <row r="22" spans="1:11" s="154" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A22" s="350" t="s">
+      <c r="A22" s="346" t="s">
         <v>399</v>
       </c>
-      <c r="B22" s="350"/>
-      <c r="C22" s="350"/>
-      <c r="D22" s="350"/>
-      <c r="E22" s="350"/>
-      <c r="F22" s="350"/>
-      <c r="G22" s="350"/>
-      <c r="H22" s="350"/>
-      <c r="I22" s="350"/>
-      <c r="J22" s="350"/>
-      <c r="K22" s="350"/>
+      <c r="B22" s="346"/>
+      <c r="C22" s="346"/>
+      <c r="D22" s="346"/>
+      <c r="E22" s="346"/>
+      <c r="F22" s="346"/>
+      <c r="G22" s="346"/>
+      <c r="H22" s="346"/>
+      <c r="I22" s="346"/>
+      <c r="J22" s="346"/>
+      <c r="K22" s="346"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="148"/>
       <c r="B23" s="148"/>
-      <c r="C23" s="372"/>
-      <c r="D23" s="372"/>
-      <c r="E23" s="372"/>
-      <c r="F23" s="372"/>
+      <c r="C23" s="366"/>
+      <c r="D23" s="366"/>
+      <c r="E23" s="366"/>
+      <c r="F23" s="366"/>
       <c r="G23" s="148"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="148"/>
       <c r="B24" s="148"/>
-      <c r="C24" s="372"/>
-      <c r="D24" s="372"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="372"/>
+      <c r="C24" s="366"/>
+      <c r="D24" s="366"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="366"/>
       <c r="G24" s="148"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="148"/>
       <c r="B25" s="148"/>
-      <c r="C25" s="372"/>
-      <c r="D25" s="372"/>
-      <c r="E25" s="372"/>
-      <c r="F25" s="372"/>
+      <c r="C25" s="366"/>
+      <c r="D25" s="366"/>
+      <c r="E25" s="366"/>
+      <c r="F25" s="366"/>
       <c r="G25" s="148"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="148"/>
       <c r="B26" s="148"/>
-      <c r="C26" s="372"/>
-      <c r="D26" s="372"/>
-      <c r="E26" s="372"/>
-      <c r="F26" s="372"/>
+      <c r="C26" s="366"/>
+      <c r="D26" s="366"/>
+      <c r="E26" s="366"/>
+      <c r="F26" s="366"/>
       <c r="G26" s="148"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="148"/>
       <c r="B27" s="148"/>
-      <c r="C27" s="372"/>
-      <c r="D27" s="372"/>
-      <c r="E27" s="372"/>
-      <c r="F27" s="372"/>
+      <c r="C27" s="366"/>
+      <c r="D27" s="366"/>
+      <c r="E27" s="366"/>
+      <c r="F27" s="366"/>
       <c r="G27" s="148"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="148"/>
       <c r="B28" s="148"/>
-      <c r="C28" s="372"/>
-      <c r="D28" s="372"/>
-      <c r="E28" s="372"/>
-      <c r="F28" s="372"/>
+      <c r="C28" s="366"/>
+      <c r="D28" s="366"/>
+      <c r="E28" s="366"/>
+      <c r="F28" s="366"/>
       <c r="G28" s="148"/>
     </row>
     <row r="29" spans="1:11" s="140" customFormat="1">
       <c r="A29" s="148"/>
       <c r="B29" s="148"/>
-      <c r="C29" s="372"/>
-      <c r="D29" s="372"/>
-      <c r="E29" s="372"/>
-      <c r="F29" s="372"/>
+      <c r="C29" s="366"/>
+      <c r="D29" s="366"/>
+      <c r="E29" s="366"/>
+      <c r="F29" s="366"/>
       <c r="G29" s="148"/>
       <c r="I29" s="137"/>
       <c r="J29" s="141"/>
       <c r="K29" s="137"/>
     </row>
     <row r="30" spans="1:11" s="140" customFormat="1">
-      <c r="A30" s="372"/>
-      <c r="B30" s="372"/>
-      <c r="C30" s="372"/>
-      <c r="D30" s="372"/>
-      <c r="E30" s="372"/>
-      <c r="F30" s="372"/>
+      <c r="A30" s="366"/>
+      <c r="B30" s="366"/>
+      <c r="C30" s="366"/>
+      <c r="D30" s="366"/>
+      <c r="E30" s="366"/>
+      <c r="F30" s="366"/>
       <c r="G30" s="148"/>
       <c r="I30" s="137"/>
       <c r="J30" s="141"/>
@@ -16712,65 +16712,19 @@
       <c r="K31" s="137"/>
     </row>
     <row r="32" spans="1:11" s="140" customFormat="1">
-      <c r="A32" s="372"/>
-      <c r="B32" s="372"/>
-      <c r="C32" s="372"/>
-      <c r="D32" s="372"/>
+      <c r="A32" s="366"/>
+      <c r="B32" s="366"/>
+      <c r="C32" s="366"/>
+      <c r="D32" s="366"/>
       <c r="E32" s="139"/>
-      <c r="F32" s="372"/>
-      <c r="G32" s="372"/>
+      <c r="F32" s="366"/>
+      <c r="G32" s="366"/>
       <c r="I32" s="137"/>
       <c r="J32" s="141"/>
       <c r="K32" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:K1"/>
@@ -16787,6 +16741,52 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
